--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/NEW_MEXICO_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/NEW_MEXICO_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D657"/>
+  <dimension ref="A1:D651"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,34 +360,34 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="C2">
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>CALVILLO</t>
+          <t>Calvillo</t>
         </is>
       </c>
       <c r="C3">
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>COSÍO</t>
+          <t>Cosío</t>
         </is>
       </c>
       <c r="C4">
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>JESÚS MARÍA</t>
+          <t>Jesús María</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>RINCÓN DE ROMOS</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>TEPEZALÁ</t>
+          <t>Tepezalá</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C9">
@@ -491,12 +491,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA</t>
+          <t>Baja California</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENSENADA</t>
+          <t>Ensenada</t>
         </is>
       </c>
       <c r="C10">
@@ -509,7 +509,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>MEXICALI</t>
+          <t>Mexicali</t>
         </is>
       </c>
       <c r="C11">
@@ -522,7 +522,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>TIJUANA</t>
+          <t>Tijuana</t>
         </is>
       </c>
       <c r="C12">
@@ -535,7 +535,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C13">
@@ -548,12 +548,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA SUR</t>
+          <t>Baja California Sur</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>COMONDÚ</t>
+          <t>Comondú</t>
         </is>
       </c>
       <c r="C14">
@@ -566,7 +566,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>LA PAZ</t>
+          <t>La Paz</t>
         </is>
       </c>
       <c r="C15">
@@ -579,7 +579,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>LOS CABOS</t>
+          <t>Los Cabos</t>
         </is>
       </c>
       <c r="C16">
@@ -592,7 +592,7 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C17">
@@ -605,12 +605,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CAMPECHE</t>
+          <t>Campeche</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CAMPECHE</t>
+          <t>Campeche</t>
         </is>
       </c>
       <c r="C18">
@@ -623,7 +623,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>CARMEN</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="C19">
@@ -636,7 +636,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C20">
@@ -649,12 +649,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CHIAPAS</t>
+          <t>Chiapas</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ARRIAGA</t>
+          <t>Arriaga</t>
         </is>
       </c>
       <c r="C21">
@@ -667,7 +667,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>CATAZAJÁ</t>
+          <t>Catazajá</t>
         </is>
       </c>
       <c r="C22">
@@ -680,7 +680,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>CHIAPA DE CORZO</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C23">
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>CHICOMUSELO</t>
+          <t>Chicomuselo</t>
         </is>
       </c>
       <c r="C24">
@@ -706,7 +706,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>CINTALAPA</t>
+          <t>Cintalapa</t>
         </is>
       </c>
       <c r="C25">
@@ -719,7 +719,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>EL BOSQUE</t>
+          <t>El Bosque</t>
         </is>
       </c>
       <c r="C26">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>FRONTERA COMALAPA</t>
+          <t>Frontera Comalapa</t>
         </is>
       </c>
       <c r="C27">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>FRONTERA HIDALGO</t>
+          <t>Frontera Hidalgo</t>
         </is>
       </c>
       <c r="C28">
@@ -758,7 +758,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>HUEHUETÁN</t>
+          <t>Huehuetán</t>
         </is>
       </c>
       <c r="C29">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>LAS MARGARITAS</t>
+          <t>Las Margaritas</t>
         </is>
       </c>
       <c r="C30">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>MAPASTEPEC</t>
+          <t>Mapastepec</t>
         </is>
       </c>
       <c r="C31">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>MOTOZINTLA</t>
+          <t>Motozintla</t>
         </is>
       </c>
       <c r="C32">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>PALENQUE</t>
+          <t>Palenque</t>
         </is>
       </c>
       <c r="C33">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>PIJIJIAPAN</t>
+          <t>Pijijiapan</t>
         </is>
       </c>
       <c r="C34">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>SAN CRISTÓBAL DE LAS CASAS</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C35">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>SILTEPEC</t>
+          <t>Siltepec</t>
         </is>
       </c>
       <c r="C36">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>SUCHIATE</t>
+          <t>Suchiate</t>
         </is>
       </c>
       <c r="C37">
@@ -875,7 +875,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>TAPACHULA</t>
+          <t>Tapachula</t>
         </is>
       </c>
       <c r="C38">
@@ -888,7 +888,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>TAPALAPA</t>
+          <t>Tapalapa</t>
         </is>
       </c>
       <c r="C39">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>TECPATÁN</t>
+          <t>Tecpatán</t>
         </is>
       </c>
       <c r="C40">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>TONALÁ</t>
+          <t>Tonalá</t>
         </is>
       </c>
       <c r="C41">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>TUXTLA CHICO</t>
+          <t>Tuxtla Chico</t>
         </is>
       </c>
       <c r="C42">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>TZIMOL</t>
+          <t>Tzimol</t>
         </is>
       </c>
       <c r="C43">
@@ -953,7 +953,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C44">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>VILLA COMALTITLÁN</t>
+          <t>Villa Comaltitlán</t>
         </is>
       </c>
       <c r="C45">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>VILLA CORZO</t>
+          <t>Villa Corzo</t>
         </is>
       </c>
       <c r="C46">
@@ -992,7 +992,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C47">
@@ -1005,12 +1005,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>AHUMADA</t>
+          <t>Ahumada</t>
         </is>
       </c>
       <c r="C48">
@@ -1023,7 +1023,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>ALDAMA</t>
+          <t>Aldama</t>
         </is>
       </c>
       <c r="C49">
@@ -1036,7 +1036,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>ALLENDE</t>
+          <t>Allende</t>
         </is>
       </c>
       <c r="C50">
@@ -1049,7 +1049,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>AQUILES SERDÁN</t>
+          <t>Aquiles Serdán</t>
         </is>
       </c>
       <c r="C51">
@@ -1062,7 +1062,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>ASCENSIÓN</t>
+          <t>Ascensión</t>
         </is>
       </c>
       <c r="C52">
@@ -1075,7 +1075,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>BACHÍNIVA</t>
+          <t>Bachíniva</t>
         </is>
       </c>
       <c r="C53">
@@ -1088,7 +1088,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>BALLEZA</t>
+          <t>Balleza</t>
         </is>
       </c>
       <c r="C54">
@@ -1101,7 +1101,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>BATOPILAS</t>
+          <t>Batopilas</t>
         </is>
       </c>
       <c r="C55">
@@ -1114,7 +1114,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>BOCOYNA</t>
+          <t>Bocoyna</t>
         </is>
       </c>
       <c r="C56">
@@ -1127,7 +1127,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>BUENAVENTURA</t>
+          <t>Buenaventura</t>
         </is>
       </c>
       <c r="C57">
@@ -1140,7 +1140,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>CAMARGO</t>
+          <t>Camargo</t>
         </is>
       </c>
       <c r="C58">
@@ -1153,7 +1153,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>CARICHÍ</t>
+          <t>Carichí</t>
         </is>
       </c>
       <c r="C59">
@@ -1166,7 +1166,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>CASAS GRANDES</t>
+          <t>Casas Grandes</t>
         </is>
       </c>
       <c r="C60">
@@ -1179,7 +1179,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="C61">
@@ -1192,7 +1192,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>CORONADO</t>
+          <t>Coronado</t>
         </is>
       </c>
       <c r="C62">
@@ -1205,7 +1205,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>COYAME DEL SOTOL</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C63">
@@ -1218,7 +1218,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C64">
@@ -1231,7 +1231,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>CUSIHUIRIACHI</t>
+          <t>Cusihuiriachi</t>
         </is>
       </c>
       <c r="C65">
@@ -1244,7 +1244,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>DELICIAS</t>
+          <t>Delicias</t>
         </is>
       </c>
       <c r="C66">
@@ -1257,7 +1257,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>DR. BELISARIO DOMÍNGUEZ</t>
+          <t>Dr. Belisario Domínguez</t>
         </is>
       </c>
       <c r="C67">
@@ -1270,7 +1270,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>EL TULE</t>
+          <t>El Tule</t>
         </is>
       </c>
       <c r="C68">
@@ -1283,7 +1283,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>GALEANA</t>
+          <t>Galeana</t>
         </is>
       </c>
       <c r="C69">
@@ -1296,7 +1296,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>GRAN MORELOS</t>
+          <t>Gran Morelos</t>
         </is>
       </c>
       <c r="C70">
@@ -1309,7 +1309,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>GUACHOCHI</t>
+          <t>Guachochi</t>
         </is>
       </c>
       <c r="C71">
@@ -1322,7 +1322,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>Guadalupe</t>
         </is>
       </c>
       <c r="C72">
@@ -1335,7 +1335,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>GUADALUPE Y CALVO</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C73">
@@ -1348,7 +1348,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="C74">
@@ -1361,7 +1361,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>GÓMEZ FARÍAS</t>
+          <t>Gómez Farías</t>
         </is>
       </c>
       <c r="C75">
@@ -1374,7 +1374,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>HIDALGO DEL PARRAL</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C76">
@@ -1387,7 +1387,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>IGNACIO ZARAGOZA</t>
+          <t>Ignacio Zaragoza</t>
         </is>
       </c>
       <c r="C77">
@@ -1400,7 +1400,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>JANOS</t>
+          <t>Janos</t>
         </is>
       </c>
       <c r="C78">
@@ -1413,7 +1413,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>JIMÉNEZ</t>
+          <t>Jiménez</t>
         </is>
       </c>
       <c r="C79">
@@ -1426,7 +1426,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>JULIMES</t>
+          <t>Julimes</t>
         </is>
       </c>
       <c r="C80">
@@ -1439,7 +1439,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>JUÁREZ</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="C81">
@@ -1452,7 +1452,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>LA CRUZ</t>
+          <t>La Cruz</t>
         </is>
       </c>
       <c r="C82">
@@ -1465,7 +1465,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>LÓPEZ</t>
+          <t>López</t>
         </is>
       </c>
       <c r="C83">
@@ -1478,7 +1478,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>MADERA</t>
+          <t>Madera</t>
         </is>
       </c>
       <c r="C84">
@@ -1491,7 +1491,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>MATACHÍ</t>
+          <t>Matachí</t>
         </is>
       </c>
       <c r="C85">
@@ -1504,7 +1504,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>MATAMOROS</t>
+          <t>Matamoros</t>
         </is>
       </c>
       <c r="C86">
@@ -1517,7 +1517,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>MEOQUI</t>
+          <t>Meoqui</t>
         </is>
       </c>
       <c r="C87">
@@ -1530,7 +1530,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>MORELOS</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="C88">
@@ -1543,7 +1543,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>MORIS</t>
+          <t>Moris</t>
         </is>
       </c>
       <c r="C89">
@@ -1556,7 +1556,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>NAMIQUIPA</t>
+          <t>Namiquipa</t>
         </is>
       </c>
       <c r="C90">
@@ -1569,7 +1569,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C91">
@@ -1582,7 +1582,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>NONOAVA</t>
+          <t>Nonoava</t>
         </is>
       </c>
       <c r="C92">
@@ -1595,7 +1595,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>NUEVO CASAS GRANDES</t>
+          <t>Nuevo Casas Grandes</t>
         </is>
       </c>
       <c r="C93">
@@ -1608,7 +1608,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>OCAMPO</t>
+          <t>Ocampo</t>
         </is>
       </c>
       <c r="C94">
@@ -1621,7 +1621,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>OJINAGA</t>
+          <t>Ojinaga</t>
         </is>
       </c>
       <c r="C95">
@@ -1634,7 +1634,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>PRAXEDIS G. GUERRERO</t>
+          <t>Praxedis G. Guerrero</t>
         </is>
       </c>
       <c r="C96">
@@ -1647,7 +1647,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>RIVA PALACIO</t>
+          <t>Riva Palacio</t>
         </is>
       </c>
       <c r="C97">
@@ -1660,7 +1660,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>ROSALES</t>
+          <t>Rosales</t>
         </is>
       </c>
       <c r="C98">
@@ -1673,7 +1673,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>ROSARIO</t>
+          <t>Rosario</t>
         </is>
       </c>
       <c r="C99">
@@ -1686,7 +1686,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO DE BORJA</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C100">
@@ -1699,7 +1699,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO DEL ORO</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C101">
@@ -1712,7 +1712,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>SANTA BÁRBARA</t>
+          <t>Santa Bárbara</t>
         </is>
       </c>
       <c r="C102">
@@ -1725,7 +1725,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>SANTA ISABEL</t>
+          <t>Santa Isabel</t>
         </is>
       </c>
       <c r="C103">
@@ -1738,7 +1738,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>SATEVÓ</t>
+          <t>Satevó</t>
         </is>
       </c>
       <c r="C104">
@@ -1751,7 +1751,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>SAUCILLO</t>
+          <t>Saucillo</t>
         </is>
       </c>
       <c r="C105">
@@ -1764,7 +1764,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>TEMÓSACHIC</t>
+          <t>Temósachic</t>
         </is>
       </c>
       <c r="C106">
@@ -1777,7 +1777,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>URIQUE</t>
+          <t>Urique</t>
         </is>
       </c>
       <c r="C107">
@@ -1790,7 +1790,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>URUACHI</t>
+          <t>Uruachi</t>
         </is>
       </c>
       <c r="C108">
@@ -1803,7 +1803,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>VALLE DE ZARAGOZA</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C109">
@@ -1816,7 +1816,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C110">
@@ -1829,12 +1829,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>CIUDAD DE MÉXICO</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>AZCAPOTZALCO</t>
+          <t>Azcapotzalco</t>
         </is>
       </c>
       <c r="C111">
@@ -1847,7 +1847,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C112">
@@ -1860,7 +1860,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>COYOACÁN</t>
+          <t>Coyoacán</t>
         </is>
       </c>
       <c r="C113">
@@ -1873,7 +1873,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C114">
@@ -1886,7 +1886,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>GUSTAVO A. MADERO</t>
+          <t>Gustavo A. Madero</t>
         </is>
       </c>
       <c r="C115">
@@ -1899,7 +1899,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>IZTACALCO</t>
+          <t>Iztacalco</t>
         </is>
       </c>
       <c r="C116">
@@ -1912,7 +1912,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>IZTAPALAPA</t>
+          <t>Iztapalapa</t>
         </is>
       </c>
       <c r="C117">
@@ -1925,7 +1925,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>LA MAGDALENA CONTRERAS</t>
+          <t>La Magdalena Contreras</t>
         </is>
       </c>
       <c r="C118">
@@ -1938,7 +1938,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>MIGUEL HIDALGO</t>
+          <t>Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C119">
@@ -1951,7 +1951,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>TLALPAN</t>
+          <t>Tlalpan</t>
         </is>
       </c>
       <c r="C120">
@@ -1964,7 +1964,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>TLÁHUAC</t>
+          <t>Tláhuac</t>
         </is>
       </c>
       <c r="C121">
@@ -1977,7 +1977,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C122">
@@ -1990,7 +1990,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>ÁLVARO OBREGÓN</t>
+          <t>Álvaro Obregón</t>
         </is>
       </c>
       <c r="C123">
@@ -2003,7 +2003,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C124">
@@ -2016,12 +2016,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>COAHUILA DE ZARAGOZA</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ACUÑA</t>
+          <t>Acuña</t>
         </is>
       </c>
       <c r="C125">
@@ -2034,7 +2034,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>ALLENDE</t>
+          <t>Allende</t>
         </is>
       </c>
       <c r="C126">
@@ -2047,7 +2047,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>CUATRO CIÉNEGAS</t>
+          <t>Cuatro Ciénegas</t>
         </is>
       </c>
       <c r="C127">
@@ -2060,7 +2060,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>FRANCISCO I. MADERO</t>
+          <t>Francisco I. Madero</t>
         </is>
       </c>
       <c r="C128">
@@ -2073,7 +2073,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>MATAMOROS</t>
+          <t>Matamoros</t>
         </is>
       </c>
       <c r="C129">
@@ -2086,7 +2086,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>MONCLOVA</t>
+          <t>Monclova</t>
         </is>
       </c>
       <c r="C130">
@@ -2099,7 +2099,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>MÚZQUIZ</t>
+          <t>Múzquiz</t>
         </is>
       </c>
       <c r="C131">
@@ -2112,7 +2112,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>SABINAS</t>
+          <t>Sabinas</t>
         </is>
       </c>
       <c r="C132">
@@ -2125,7 +2125,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>SALTILLO</t>
+          <t>Saltillo</t>
         </is>
       </c>
       <c r="C133">
@@ -2138,7 +2138,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>SAN JUAN DE SABINAS</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C134">
@@ -2151,7 +2151,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>SAN PEDRO</t>
+          <t>San Pedro</t>
         </is>
       </c>
       <c r="C135">
@@ -2164,7 +2164,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>SIERRA MOJADA</t>
+          <t>Sierra Mojada</t>
         </is>
       </c>
       <c r="C136">
@@ -2177,7 +2177,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>TORREÓN</t>
+          <t>Torreón</t>
         </is>
       </c>
       <c r="C137">
@@ -2190,7 +2190,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>VIESCA</t>
+          <t>Viesca</t>
         </is>
       </c>
       <c r="C138">
@@ -2203,7 +2203,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>ZARAGOZA</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="C139">
@@ -2216,7 +2216,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C140">
@@ -2229,12 +2229,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>COLIMA</t>
+          <t>Colima</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>COLIMA</t>
+          <t>Colima</t>
         </is>
       </c>
       <c r="C141">
@@ -2247,7 +2247,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>IXTLAHUACÁN</t>
+          <t>Ixtlahuacán</t>
         </is>
       </c>
       <c r="C142">
@@ -2260,7 +2260,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C143">
@@ -2273,12 +2273,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>CANATLÁN</t>
+          <t>Canatlán</t>
         </is>
       </c>
       <c r="C144">
@@ -2291,7 +2291,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>CANELAS</t>
+          <t>Canelas</t>
         </is>
       </c>
       <c r="C145">
@@ -2304,7 +2304,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>CONETO DE COMONFORT</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C146">
@@ -2317,7 +2317,7 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>CUENCAMÉ</t>
+          <t>Cuencamé</t>
         </is>
       </c>
       <c r="C147">
@@ -2330,7 +2330,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="C148">
@@ -2343,7 +2343,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>EL ORO</t>
+          <t>El Oro</t>
         </is>
       </c>
       <c r="C149">
@@ -2356,7 +2356,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>FRANCISCO I. MADERO</t>
+          <t>Francisco I. Madero</t>
         </is>
       </c>
       <c r="C150">
@@ -2369,7 +2369,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>GUADALUPE VICTORIA</t>
+          <t>Guadalupe Victoria</t>
         </is>
       </c>
       <c r="C151">
@@ -2382,7 +2382,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>GUANACEVÍ</t>
+          <t>Guanaceví</t>
         </is>
       </c>
       <c r="C152">
@@ -2395,7 +2395,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>GÓMEZ PALACIO</t>
+          <t>Gómez Palacio</t>
         </is>
       </c>
       <c r="C153">
@@ -2408,7 +2408,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="C154">
@@ -2421,7 +2421,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>INDÉ</t>
+          <t>Indé</t>
         </is>
       </c>
       <c r="C155">
@@ -2434,7 +2434,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>LERDO</t>
+          <t>Lerdo</t>
         </is>
       </c>
       <c r="C156">
@@ -2447,7 +2447,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>MAPIMÍ</t>
+          <t>Mapimí</t>
         </is>
       </c>
       <c r="C157">
@@ -2460,7 +2460,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>MEZQUITAL</t>
+          <t>Mezquital</t>
         </is>
       </c>
       <c r="C158">
@@ -2473,7 +2473,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>NAZAS</t>
+          <t>Nazas</t>
         </is>
       </c>
       <c r="C159">
@@ -2486,7 +2486,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C160">
@@ -2499,7 +2499,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>NOMBRE DE DIOS</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C161">
@@ -2512,7 +2512,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>NUEVO IDEAL</t>
+          <t>Nuevo Ideal</t>
         </is>
       </c>
       <c r="C162">
@@ -2525,7 +2525,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>OCAMPO</t>
+          <t>Ocampo</t>
         </is>
       </c>
       <c r="C163">
@@ -2538,7 +2538,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>PEÑÓN BLANCO</t>
+          <t>Peñón Blanco</t>
         </is>
       </c>
       <c r="C164">
@@ -2551,7 +2551,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>POANAS</t>
+          <t>Poanas</t>
         </is>
       </c>
       <c r="C165">
@@ -2564,7 +2564,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>Pueblo Nuevo</t>
         </is>
       </c>
       <c r="C166">
@@ -2577,7 +2577,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>PÁNUCO DE CORONADO</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C167">
@@ -2590,7 +2590,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>RODEO</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="C168">
@@ -2603,7 +2603,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>SAN BERNARDO</t>
+          <t>San Bernardo</t>
         </is>
       </c>
       <c r="C169">
@@ -2616,7 +2616,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>SAN DIMAS</t>
+          <t>San Dimas</t>
         </is>
       </c>
       <c r="C170">
@@ -2629,7 +2629,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>SAN JUAN DE GUADALUPE</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C171">
@@ -2642,7 +2642,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>SAN JUAN DEL RÍO</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C172">
@@ -2655,7 +2655,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>SAN LUIS DEL CORDERO</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C173">
@@ -2668,7 +2668,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>SAN PEDRO DEL GALLO</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C174">
@@ -2681,7 +2681,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>SANTA CLARA</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="C175">
@@ -2694,7 +2694,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>SANTIAGO PAPASQUIARO</t>
+          <t>Santiago Papasquiaro</t>
         </is>
       </c>
       <c r="C176">
@@ -2707,7 +2707,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>SÚCHIL</t>
+          <t>Súchil</t>
         </is>
       </c>
       <c r="C177">
@@ -2720,7 +2720,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>TEPEHUANES</t>
+          <t>Tepehuanes</t>
         </is>
       </c>
       <c r="C178">
@@ -2733,7 +2733,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>TLAHUALILO</t>
+          <t>Tlahualilo</t>
         </is>
       </c>
       <c r="C179">
@@ -2746,7 +2746,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>TOPIA</t>
+          <t>Topia</t>
         </is>
       </c>
       <c r="C180">
@@ -2759,7 +2759,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>VICENTE GUERRERO</t>
+          <t>Vicente Guerrero</t>
         </is>
       </c>
       <c r="C181">
@@ -2772,7 +2772,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C182">
@@ -2785,12 +2785,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ESTADO DE MÉXICO</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ACAMBAY DE RUÍZ CASTAÑEDA</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C183">
@@ -2803,7 +2803,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>AMATEPEC</t>
+          <t>Amatepec</t>
         </is>
       </c>
       <c r="C184">
@@ -2816,7 +2816,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>ATLACOMULCO</t>
+          <t>Atlacomulco</t>
         </is>
       </c>
       <c r="C185">
@@ -2829,7 +2829,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>ATLAUTLA</t>
+          <t>Atlautla</t>
         </is>
       </c>
       <c r="C186">
@@ -2842,7 +2842,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>CHICOLOAPAN</t>
+          <t>Chicoloapan</t>
         </is>
       </c>
       <c r="C187">
@@ -2855,7 +2855,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>CHIMALHUACÁN</t>
+          <t>Chimalhuacán</t>
         </is>
       </c>
       <c r="C188">
@@ -2868,7 +2868,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>CUAUTITLÁN</t>
+          <t>Cuautitlán</t>
         </is>
       </c>
       <c r="C189">
@@ -2881,7 +2881,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>ECATEPEC DE MORELOS</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C190">
@@ -2894,7 +2894,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>JILOTEPEC</t>
+          <t>Jilotepec</t>
         </is>
       </c>
       <c r="C191">
@@ -2907,7 +2907,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>LA PAZ</t>
+          <t>La Paz</t>
         </is>
       </c>
       <c r="C192">
@@ -2920,7 +2920,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>NAUCALPAN DE JUÁREZ</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C193">
@@ -2933,7 +2933,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>NEZAHUALCÓYOTL</t>
+          <t>Nezahualcóyotl</t>
         </is>
       </c>
       <c r="C194">
@@ -2946,7 +2946,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>SAN FELIPE DEL PROGRESO</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C195">
@@ -2959,7 +2959,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>SAN JOSÉ DEL RINCÓN</t>
+          <t>San José Del Rincón</t>
         </is>
       </c>
       <c r="C196">
@@ -2972,7 +2972,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>SAN MARTÍN DE LAS PIRÁMIDES</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C197">
@@ -2985,7 +2985,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>SOYANIQUILPAN DE JUÁREZ</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C198">
@@ -2998,7 +2998,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>SULTEPEC</t>
+          <t>Sultepec</t>
         </is>
       </c>
       <c r="C199">
@@ -3011,7 +3011,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>TECÁMAC</t>
+          <t>Tecámac</t>
         </is>
       </c>
       <c r="C200">
@@ -3024,7 +3024,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>TEJUPILCO</t>
+          <t>Tejupilco</t>
         </is>
       </c>
       <c r="C201">
@@ -3037,7 +3037,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>TEMASCALCINGO</t>
+          <t>Temascalcingo</t>
         </is>
       </c>
       <c r="C202">
@@ -3050,7 +3050,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>TEMASCALTEPEC</t>
+          <t>Temascaltepec</t>
         </is>
       </c>
       <c r="C203">
@@ -3063,7 +3063,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>TENANCINGO</t>
+          <t>Tenancingo</t>
         </is>
       </c>
       <c r="C204">
@@ -3076,7 +3076,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>TENANGO DEL VALLE</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C205">
@@ -3089,7 +3089,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>TEOLOYUCAN</t>
+          <t>Teoloyucan</t>
         </is>
       </c>
       <c r="C206">
@@ -3102,7 +3102,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>TEXCOCO</t>
+          <t>Texcoco</t>
         </is>
       </c>
       <c r="C207">
@@ -3115,7 +3115,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>TIMILPAN</t>
+          <t>Timilpan</t>
         </is>
       </c>
       <c r="C208">
@@ -3128,7 +3128,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>TLALNEPANTLA DE BAZ</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C209">
@@ -3141,7 +3141,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>TLATLAYA</t>
+          <t>Tlatlaya</t>
         </is>
       </c>
       <c r="C210">
@@ -3154,7 +3154,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>TOLUCA</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="C211">
@@ -3167,7 +3167,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>VILLA VICTORIA</t>
+          <t>Villa Victoria</t>
         </is>
       </c>
       <c r="C212">
@@ -3180,7 +3180,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>ZACUALPAN</t>
+          <t>Zacualpan</t>
         </is>
       </c>
       <c r="C213">
@@ -3193,7 +3193,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C214">
@@ -3206,12 +3206,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>ABASOLO</t>
+          <t>Abasolo</t>
         </is>
       </c>
       <c r="C215">
@@ -3224,7 +3224,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>ACÁMBARO</t>
+          <t>Acámbaro</t>
         </is>
       </c>
       <c r="C216">
@@ -3237,7 +3237,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>APASEO EL ALTO</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C217">
@@ -3250,7 +3250,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>CELAYA</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="C218">
@@ -3263,7 +3263,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>CORONEO</t>
+          <t>Coroneo</t>
         </is>
       </c>
       <c r="C219">
@@ -3276,7 +3276,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>CUERÁMARO</t>
+          <t>Cuerámaro</t>
         </is>
       </c>
       <c r="C220">
@@ -3289,7 +3289,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>DOCTOR MORA</t>
+          <t>Doctor Mora</t>
         </is>
       </c>
       <c r="C221">
@@ -3302,7 +3302,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>DOLORES HIDALGO CUNA DE LA INDEPENDENCIA NACIONAL</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C222">
@@ -3315,7 +3315,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="C223">
@@ -3328,7 +3328,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>HUANÍMARO</t>
+          <t>Huanímaro</t>
         </is>
       </c>
       <c r="C224">
@@ -3341,7 +3341,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>IRAPUATO</t>
+          <t>Irapuato</t>
         </is>
       </c>
       <c r="C225">
@@ -3354,7 +3354,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>JERÉCUARO</t>
+          <t>Jerécuaro</t>
         </is>
       </c>
       <c r="C226">
@@ -3367,7 +3367,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>LEÓN</t>
+          <t>León</t>
         </is>
       </c>
       <c r="C227">
@@ -3380,7 +3380,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>MANUEL DOBLADO</t>
+          <t>Manuel Doblado</t>
         </is>
       </c>
       <c r="C228">
@@ -3393,7 +3393,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>MOROLEÓN</t>
+          <t>Moroleón</t>
         </is>
       </c>
       <c r="C229">
@@ -3406,7 +3406,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>Pueblo Nuevo</t>
         </is>
       </c>
       <c r="C230">
@@ -3419,7 +3419,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>PURÍSIMA DEL RINCÓN</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C231">
@@ -3432,7 +3432,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>PÉNJAMO</t>
+          <t>Pénjamo</t>
         </is>
       </c>
       <c r="C232">
@@ -3445,7 +3445,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>ROMITA</t>
+          <t>Romita</t>
         </is>
       </c>
       <c r="C233">
@@ -3458,7 +3458,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>SALAMANCA</t>
+          <t>Salamanca</t>
         </is>
       </c>
       <c r="C234">
@@ -3471,7 +3471,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>SAN DIEGO DE LA UNIÓN</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C235">
@@ -3484,7 +3484,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>SAN FELIPE</t>
+          <t>San Felipe</t>
         </is>
       </c>
       <c r="C236">
@@ -3497,7 +3497,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO DEL RINCÓN</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C237">
@@ -3510,7 +3510,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>SAN JOSÉ ITURBIDE</t>
+          <t>San José Iturbide</t>
         </is>
       </c>
       <c r="C238">
@@ -3523,7 +3523,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>SAN MIGUEL DE ALLENDE</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C239">
@@ -3536,7 +3536,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>SANTA CRUZ DE JUVENTINO ROSAS</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C240">
@@ -3549,7 +3549,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>URIANGATO</t>
+          <t>Uriangato</t>
         </is>
       </c>
       <c r="C241">
@@ -3562,7 +3562,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>VALLE DE SANTIAGO</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C242">
@@ -3575,7 +3575,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>VICTORIA</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="C243">
@@ -3588,7 +3588,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>YURIRIA</t>
+          <t>Yuriria</t>
         </is>
       </c>
       <c r="C244">
@@ -3601,7 +3601,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C245">
@@ -3614,12 +3614,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>ACAPULCO DE JUÁREZ</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C246">
@@ -3632,7 +3632,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>AJUCHITLÁN DEL PROGRESO</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C247">
@@ -3645,7 +3645,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>ARCELIA</t>
+          <t>Arcelia</t>
         </is>
       </c>
       <c r="C248">
@@ -3658,7 +3658,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>ATOYAC DE ÁLVAREZ</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C249">
@@ -3671,7 +3671,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>AYUTLA DE LOS LIBRES</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C250">
@@ -3684,7 +3684,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>AZOYÚ</t>
+          <t>Azoyú</t>
         </is>
       </c>
       <c r="C251">
@@ -3697,7 +3697,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>CHILPANCINGO DE LOS BRAVO</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C252">
@@ -3710,7 +3710,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>COCULA</t>
+          <t>Cocula</t>
         </is>
       </c>
       <c r="C253">
@@ -3723,7 +3723,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>COYUCA DE BENÍTEZ</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C254">
@@ -3736,7 +3736,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>COYUCA DE CATALÁN</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C255">
@@ -3749,7 +3749,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>CUETZALA DEL PROGRESO</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C256">
@@ -3762,7 +3762,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>EDUARDO NERI</t>
+          <t>Eduardo Neri</t>
         </is>
       </c>
       <c r="C257">
@@ -3775,7 +3775,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>FLORENCIO VILLARREAL</t>
+          <t>Florencio Villarreal</t>
         </is>
       </c>
       <c r="C258">
@@ -3788,7 +3788,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>IGUALA DE LA INDEPENDENCIA</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C259">
@@ -3801,7 +3801,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>JUAN R. ESCUDERO</t>
+          <t>Juan R. Escudero</t>
         </is>
       </c>
       <c r="C260">
@@ -3814,7 +3814,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>OMETEPEC</t>
+          <t>Ometepec</t>
         </is>
       </c>
       <c r="C261">
@@ -3827,7 +3827,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>PETATLÁN</t>
+          <t>Petatlán</t>
         </is>
       </c>
       <c r="C262">
@@ -3840,7 +3840,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>PUNGARABATO</t>
+          <t>Pungarabato</t>
         </is>
       </c>
       <c r="C263">
@@ -3853,7 +3853,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>QUECHULTENANGO</t>
+          <t>Quechultenango</t>
         </is>
       </c>
       <c r="C264">
@@ -3866,7 +3866,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>SAN MARCOS</t>
+          <t>San Marcos</t>
         </is>
       </c>
       <c r="C265">
@@ -3879,7 +3879,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>TECOANAPA</t>
+          <t>Tecoanapa</t>
         </is>
       </c>
       <c r="C266">
@@ -3892,7 +3892,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>TELOLOAPAN</t>
+          <t>Teloloapan</t>
         </is>
       </c>
       <c r="C267">
@@ -3905,7 +3905,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>TEPECOACUILCO DE TRUJANO</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C268">
@@ -3918,7 +3918,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>TÉCPAN DE GALEANA</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C269">
@@ -3931,7 +3931,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>ZIHUATANEJO DE AZUETA</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C270">
@@ -3944,7 +3944,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C271">
@@ -3957,12 +3957,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>ACATLÁN</t>
+          <t>Acatlán</t>
         </is>
       </c>
       <c r="C272">
@@ -3975,7 +3975,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>ACTOPAN</t>
+          <t>Actopan</t>
         </is>
       </c>
       <c r="C273">
@@ -3988,7 +3988,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>APAN</t>
+          <t>Apan</t>
         </is>
       </c>
       <c r="C274">
@@ -4001,7 +4001,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>HUASCA DE OCAMPO</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C275">
@@ -4014,7 +4014,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>HUICHAPA</t>
+          <t>Huichapa</t>
         </is>
       </c>
       <c r="C276">
@@ -4027,7 +4027,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>HUICHAPAN</t>
+          <t>Huichapan</t>
         </is>
       </c>
       <c r="C277">
@@ -4040,7 +4040,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>MIXQUIAHUALA DE JUÁREZ</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C278">
@@ -4053,7 +4053,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>NICOLÁS FLORES</t>
+          <t>Nicolás Flores</t>
         </is>
       </c>
       <c r="C279">
@@ -4066,7 +4066,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>PACHUCA DE SOTO</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C280">
@@ -4079,7 +4079,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>PROGRESO DE OBREGÓN</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C281">
@@ -4092,7 +4092,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>SAN AGUSTÍN TLAXIACA</t>
+          <t>San Agustín Tlaxiaca</t>
         </is>
       </c>
       <c r="C282">
@@ -4105,7 +4105,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>SAN FELIPE ORIZATLÁN</t>
+          <t>San Felipe Orizatlán</t>
         </is>
       </c>
       <c r="C283">
@@ -4118,7 +4118,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>TIZAYUCA</t>
+          <t>Tizayuca</t>
         </is>
       </c>
       <c r="C284">
@@ -4131,7 +4131,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>TULA DE ALLENDE</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C285">
@@ -4144,7 +4144,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>TULANCINGO DE BRAVO</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C286">
@@ -4157,7 +4157,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>XOCHICOATLÁN</t>
+          <t>Xochicoatlán</t>
         </is>
       </c>
       <c r="C287">
@@ -4170,7 +4170,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>ZIMAPÁN</t>
+          <t>Zimapán</t>
         </is>
       </c>
       <c r="C288">
@@ -4183,7 +4183,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C289">
@@ -4196,12 +4196,12 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>JALISCO</t>
+          <t>Jalisco</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>ACATIC</t>
+          <t>Acatic</t>
         </is>
       </c>
       <c r="C290">
@@ -4214,7 +4214,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>AMECA</t>
+          <t>Ameca</t>
         </is>
       </c>
       <c r="C291">
@@ -4227,7 +4227,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>ATENGO</t>
+          <t>Atengo</t>
         </is>
       </c>
       <c r="C292">
@@ -4240,7 +4240,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>ATOTONILCO EL ALTO</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C293">
@@ -4253,7 +4253,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>AUTLÁN DE NAVARRO</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C294">
@@ -4266,7 +4266,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>BOLAÑOS</t>
+          <t>Bolaños</t>
         </is>
       </c>
       <c r="C295">
@@ -4279,7 +4279,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>CASIMIRO CASTILLO</t>
+          <t>Casimiro Castillo</t>
         </is>
       </c>
       <c r="C296">
@@ -4292,7 +4292,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>CAÑADAS DE OBREGÓN</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C297">
@@ -4305,7 +4305,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>EL LIMÓN</t>
+          <t>El Limón</t>
         </is>
       </c>
       <c r="C298">
@@ -4318,7 +4318,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>ENCARNACIÓN DE DÍAZ</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C299">
@@ -4331,7 +4331,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>GUADALAJARA</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="C300">
@@ -4344,7 +4344,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>GÓMEZ FARÍAS</t>
+          <t>Gómez Farías</t>
         </is>
       </c>
       <c r="C301">
@@ -4357,7 +4357,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>HUEJUQUILLA EL ALTO</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C302">
@@ -4370,7 +4370,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>HUEJÚCAR</t>
+          <t>Huejúcar</t>
         </is>
       </c>
       <c r="C303">
@@ -4383,7 +4383,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>IXTLAHUACÁN DEL RÍO</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C304">
@@ -4396,7 +4396,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>JALOSTOTITLÁN</t>
+          <t>Jalostotitlán</t>
         </is>
       </c>
       <c r="C305">
@@ -4409,7 +4409,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>JAMAY</t>
+          <t>Jamay</t>
         </is>
       </c>
       <c r="C306">
@@ -4422,7 +4422,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>LAGOS DE MORENO</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C307">
@@ -4435,7 +4435,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>MAGDALENA</t>
+          <t>Magdalena</t>
         </is>
       </c>
       <c r="C308">
@@ -4448,7 +4448,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>MASCOTA</t>
+          <t>Mascota</t>
         </is>
       </c>
       <c r="C309">
@@ -4461,7 +4461,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>MEZQUITIC</t>
+          <t>Mezquitic</t>
         </is>
       </c>
       <c r="C310">
@@ -4474,7 +4474,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C311">
@@ -4487,7 +4487,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>PIHUAMO</t>
+          <t>Pihuamo</t>
         </is>
       </c>
       <c r="C312">
@@ -4500,7 +4500,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>PUERTO VALLARTA</t>
+          <t>Puerto Vallarta</t>
         </is>
       </c>
       <c r="C313">
@@ -4513,7 +4513,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>QUITUPAN</t>
+          <t>Quitupan</t>
         </is>
       </c>
       <c r="C314">
@@ -4526,7 +4526,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>SAN DIEGO DE ALEJANDRÍA</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C315">
@@ -4539,7 +4539,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>SAN GABRIEL</t>
+          <t>San Gabriel</t>
         </is>
       </c>
       <c r="C316">
@@ -4552,7 +4552,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>SAN JULIÁN</t>
+          <t>San Julián</t>
         </is>
       </c>
       <c r="C317">
@@ -4565,7 +4565,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>SAN MIGUEL EL ALTO</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C318">
@@ -4578,7 +4578,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>SAN PEDRO TLAQUEPAQUE</t>
+          <t>San Pedro Tlaquepaque</t>
         </is>
       </c>
       <c r="C319">
@@ -4591,7 +4591,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>TALA</t>
+          <t>Tala</t>
         </is>
       </c>
       <c r="C320">
@@ -4604,7 +4604,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>TALPA DE ALLENDE</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C321">
@@ -4617,7 +4617,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>TAMAZULA DE GORDIANO</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C322">
@@ -4630,7 +4630,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>TECALITLÁN</t>
+          <t>Tecalitlán</t>
         </is>
       </c>
       <c r="C323">
@@ -4643,7 +4643,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>TEOCALTICHE</t>
+          <t>Teocaltiche</t>
         </is>
       </c>
       <c r="C324">
@@ -4656,7 +4656,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>TEOCUITATLÁN DE CORONA</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C325">
@@ -4669,7 +4669,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>TEPATITLÁN DE MORELOS</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C326">
@@ -4682,7 +4682,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>TEQUILA</t>
+          <t>Tequila</t>
         </is>
       </c>
       <c r="C327">
@@ -4695,7 +4695,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>TLAJOMULCO DE ZÚÑIGA</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C328">
@@ -4708,7 +4708,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>TOMATLÁN</t>
+          <t>Tomatlán</t>
         </is>
       </c>
       <c r="C329">
@@ -4721,7 +4721,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>TONALÁ</t>
+          <t>Tonalá</t>
         </is>
       </c>
       <c r="C330">
@@ -4734,7 +4734,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C331">
@@ -4747,7 +4747,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>UNIÓN DE TULA</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C332">
@@ -4760,7 +4760,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>VALLE DE GUADALUPE</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C333">
@@ -4773,7 +4773,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>VILLA HIDALGO</t>
+          <t>Villa Hidalgo</t>
         </is>
       </c>
       <c r="C334">
@@ -4786,7 +4786,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>VILLA PURIFICACIÓN</t>
+          <t>Villa Purificación</t>
         </is>
       </c>
       <c r="C335">
@@ -4799,7 +4799,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>YAHUALICA DE GONZÁLEZ GALLO</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C336">
@@ -4812,7 +4812,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>ZAPOPAN</t>
+          <t>Zapopan</t>
         </is>
       </c>
       <c r="C337">
@@ -4825,7 +4825,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>ZAPOTILTIC</t>
+          <t>Zapotiltic</t>
         </is>
       </c>
       <c r="C338">
@@ -4838,7 +4838,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>ZAPOTLANEJO</t>
+          <t>Zapotlanejo</t>
         </is>
       </c>
       <c r="C339">
@@ -4851,7 +4851,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>ZAPOTLÁN EL GRANDE</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C340">
@@ -4864,7 +4864,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C341">
@@ -4877,12 +4877,12 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>MICHOACÁN DE OCAMPO</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>ANGAMACUTIRO</t>
+          <t>Angamacutiro</t>
         </is>
       </c>
       <c r="C342">
@@ -4895,7 +4895,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>APATZINGÁN</t>
+          <t>Apatzingán</t>
         </is>
       </c>
       <c r="C343">
@@ -4908,7 +4908,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>APORO</t>
+          <t>Aporo</t>
         </is>
       </c>
       <c r="C344">
@@ -4921,7 +4921,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>BRISEÑAS</t>
+          <t>Briseñas</t>
         </is>
       </c>
       <c r="C345">
@@ -4934,7 +4934,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>BUENAVISTA</t>
+          <t>Buenavista</t>
         </is>
       </c>
       <c r="C346">
@@ -4947,7 +4947,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>CHUCÁNDIRO</t>
+          <t>Chucándiro</t>
         </is>
       </c>
       <c r="C347">
@@ -4960,7 +4960,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>COALCOMÁN DE VÁZQUEZ PALLARES</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C348">
@@ -4973,7 +4973,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>COJUMATLÁN DE RÉGULES</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C349">
@@ -4986,7 +4986,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>CONTEPEC</t>
+          <t>Contepec</t>
         </is>
       </c>
       <c r="C350">
@@ -4999,7 +4999,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>EPITACIO HUERTA</t>
+          <t>Epitacio Huerta</t>
         </is>
       </c>
       <c r="C351">
@@ -5012,7 +5012,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="C352">
@@ -5025,7 +5025,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>LA HUACANA</t>
+          <t>La Huacana</t>
         </is>
       </c>
       <c r="C353">
@@ -5038,7 +5038,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>LA PIEDAD</t>
+          <t>La Piedad</t>
         </is>
       </c>
       <c r="C354">
@@ -5051,7 +5051,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>LOS REYES</t>
+          <t>Los Reyes</t>
         </is>
       </c>
       <c r="C355">
@@ -5064,7 +5064,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>LÁZARO CÁRDENAS</t>
+          <t>Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C356">
@@ -5077,7 +5077,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>MADERO</t>
+          <t>Madero</t>
         </is>
       </c>
       <c r="C357">
@@ -5090,7 +5090,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>MARAVATÍO</t>
+          <t>Maravatío</t>
         </is>
       </c>
       <c r="C358">
@@ -5103,7 +5103,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>MORELIA</t>
+          <t>Morelia</t>
         </is>
       </c>
       <c r="C359">
@@ -5116,7 +5116,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>MÚGICA</t>
+          <t>Múgica</t>
         </is>
       </c>
       <c r="C360">
@@ -5129,7 +5129,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>NOCUPÉTARO</t>
+          <t>Nocupétaro</t>
         </is>
       </c>
       <c r="C361">
@@ -5142,7 +5142,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>NUMARÁN</t>
+          <t>Numarán</t>
         </is>
       </c>
       <c r="C362">
@@ -5155,7 +5155,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>OCAMPO</t>
+          <t>Ocampo</t>
         </is>
       </c>
       <c r="C363">
@@ -5168,7 +5168,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>PARACHO</t>
+          <t>Paracho</t>
         </is>
       </c>
       <c r="C364">
@@ -5181,7 +5181,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>PARÁCUARO</t>
+          <t>Parácuaro</t>
         </is>
       </c>
       <c r="C365">
@@ -5194,7 +5194,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>PERIBÁN</t>
+          <t>Peribán</t>
         </is>
       </c>
       <c r="C366">
@@ -5207,7 +5207,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>PÁTZCUARO</t>
+          <t>Pátzcuaro</t>
         </is>
       </c>
       <c r="C367">
@@ -5220,7 +5220,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>QUERÉNDARO</t>
+          <t>Queréndaro</t>
         </is>
       </c>
       <c r="C368">
@@ -5233,7 +5233,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>SUSUPUATO</t>
+          <t>Susupuato</t>
         </is>
       </c>
       <c r="C369">
@@ -5246,7 +5246,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>TANCÍTARO</t>
+          <t>Tancítaro</t>
         </is>
       </c>
       <c r="C370">
@@ -5259,7 +5259,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>TANGANCÍCUARO</t>
+          <t>Tangancícuaro</t>
         </is>
       </c>
       <c r="C371">
@@ -5272,7 +5272,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>TARETAN</t>
+          <t>Taretan</t>
         </is>
       </c>
       <c r="C372">
@@ -5285,7 +5285,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>TIQUICHEO DE NICOLÁS ROMERO</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C373">
@@ -5298,7 +5298,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C374">
@@ -5311,7 +5311,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>TZINTZUNTZAN</t>
+          <t>Tzintzuntzan</t>
         </is>
       </c>
       <c r="C375">
@@ -5324,7 +5324,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>TZITZIO</t>
+          <t>Tzitzio</t>
         </is>
       </c>
       <c r="C376">
@@ -5337,7 +5337,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>URUAPAN</t>
+          <t>Uruapan</t>
         </is>
       </c>
       <c r="C377">
@@ -5350,7 +5350,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>VISTA HERMOSA</t>
+          <t>Vista Hermosa</t>
         </is>
       </c>
       <c r="C378">
@@ -5363,7 +5363,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>ZAMORA</t>
+          <t>Zamora</t>
         </is>
       </c>
       <c r="C379">
@@ -5376,7 +5376,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>ZINAPÉCUARO</t>
+          <t>Zinapécuaro</t>
         </is>
       </c>
       <c r="C380">
@@ -5389,7 +5389,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>ZIRACUARETIRO</t>
+          <t>Ziracuaretiro</t>
         </is>
       </c>
       <c r="C381">
@@ -5402,7 +5402,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>ZITÁCUARO</t>
+          <t>Zitácuaro</t>
         </is>
       </c>
       <c r="C382">
@@ -5415,7 +5415,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C383">
@@ -5428,12 +5428,12 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>MORELOS</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>CUAUTLA</t>
+          <t>Cuautla</t>
         </is>
       </c>
       <c r="C384">
@@ -5446,7 +5446,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>CUERNAVACA</t>
+          <t>Cuernavaca</t>
         </is>
       </c>
       <c r="C385">
@@ -5459,7 +5459,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>EMILIANO ZAPATA</t>
+          <t>Emiliano Zapata</t>
         </is>
       </c>
       <c r="C386">
@@ -5472,7 +5472,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>JOJUTLA</t>
+          <t>Jojutla</t>
         </is>
       </c>
       <c r="C387">
@@ -5485,7 +5485,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>PUENTE DE IXTLA</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C388">
@@ -5498,7 +5498,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>TEMIXCO</t>
+          <t>Temixco</t>
         </is>
       </c>
       <c r="C389">
@@ -5511,7 +5511,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>TEPOZTLÁN</t>
+          <t>Tepoztlán</t>
         </is>
       </c>
       <c r="C390">
@@ -5524,7 +5524,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>TETECALA</t>
+          <t>Tetecala</t>
         </is>
       </c>
       <c r="C391">
@@ -5537,7 +5537,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>YAUTEPEC</t>
+          <t>Yautepec</t>
         </is>
       </c>
       <c r="C392">
@@ -5550,7 +5550,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C393">
@@ -5563,12 +5563,12 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>NAYARIT</t>
+          <t>Nayarit</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>ACAPONETA</t>
+          <t>Acaponeta</t>
         </is>
       </c>
       <c r="C394">
@@ -5581,7 +5581,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>AHUACATLÁN</t>
+          <t>Ahuacatlán</t>
         </is>
       </c>
       <c r="C395">
@@ -5594,7 +5594,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>AMATLÁN DE CAÑAS</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C396">
@@ -5607,7 +5607,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>COMPOSTELA</t>
+          <t>Compostela</t>
         </is>
       </c>
       <c r="C397">
@@ -5620,7 +5620,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>DEL NAYAR</t>
+          <t>Del Nayar</t>
         </is>
       </c>
       <c r="C398">
@@ -5633,7 +5633,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>HUAJICORI</t>
+          <t>Huajicori</t>
         </is>
       </c>
       <c r="C399">
@@ -5646,7 +5646,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>IXTLÁN DEL RÍO</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C400">
@@ -5659,7 +5659,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>JALA</t>
+          <t>Jala</t>
         </is>
       </c>
       <c r="C401">
@@ -5672,7 +5672,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>SAN PEDRO LAGUNILLAS</t>
+          <t>San Pedro Lagunillas</t>
         </is>
       </c>
       <c r="C402">
@@ -5685,7 +5685,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>SANTIAGO IXCUINTLA</t>
+          <t>Santiago Ixcuintla</t>
         </is>
       </c>
       <c r="C403">
@@ -5698,7 +5698,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>TEPIC</t>
+          <t>Tepic</t>
         </is>
       </c>
       <c r="C404">
@@ -5711,7 +5711,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>XALISCO</t>
+          <t>Xalisco</t>
         </is>
       </c>
       <c r="C405">
@@ -5724,7 +5724,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C406">
@@ -5737,12 +5737,12 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>NUEVO LEÓN</t>
+          <t>Nuevo León</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>ANÁHUAC</t>
+          <t>Anáhuac</t>
         </is>
       </c>
       <c r="C407">
@@ -5755,7 +5755,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>CADEREYTA JIMÉNEZ</t>
+          <t>Cadereyta Jiménez</t>
         </is>
       </c>
       <c r="C408">
@@ -5768,7 +5768,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>GARCÍA</t>
+          <t>García</t>
         </is>
       </c>
       <c r="C409">
@@ -5781,7 +5781,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>Guadalupe</t>
         </is>
       </c>
       <c r="C410">
@@ -5794,7 +5794,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>LINARES</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="C411">
@@ -5807,7 +5807,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>MONTERREY</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="C412">
@@ -5820,7 +5820,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>SABINAS HIDALGO</t>
+          <t>Sabinas Hidalgo</t>
         </is>
       </c>
       <c r="C413">
@@ -5833,7 +5833,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>SAN NICOLÁS DE LOS GARZA</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C414">
@@ -5846,7 +5846,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C415">
@@ -5859,12 +5859,12 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>OAXACA</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>ASUNCIÓN NOCHIXTLÁN</t>
+          <t>Asunción Nochixtlán</t>
         </is>
       </c>
       <c r="C416">
@@ -5877,7 +5877,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>CIUDAD IXTEPEC</t>
+          <t>Ciudad Ixtepec</t>
         </is>
       </c>
       <c r="C417">
@@ -5890,7 +5890,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>HEROICA CIUDAD DE TLAXIACO</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C418">
@@ -5903,7 +5903,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>HUAJUAPAN DE LEÓN</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C419">
@@ -5916,7 +5916,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>LOMA BONITA</t>
+          <t>Loma Bonita</t>
         </is>
       </c>
       <c r="C420">
@@ -5929,7 +5929,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>MIAHUATLÁN DE PORFIRIO DÍAZ</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C421">
@@ -5942,7 +5942,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>NEJAPA DE MADERO</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C422">
@@ -5955,7 +5955,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>OAXACA DE JUÁREZ</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C423">
@@ -5968,7 +5968,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>PUTLA VILLA DE GUERRERO</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C424">
@@ -5981,7 +5981,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>SALINA CRUZ</t>
+          <t>Salina Cruz</t>
         </is>
       </c>
       <c r="C425">
@@ -5994,7 +5994,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>SAN CARLOS YAUTEPEC</t>
+          <t>San Carlos Yautepec</t>
         </is>
       </c>
       <c r="C426">
@@ -6007,7 +6007,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA TUXTEPEC</t>
+          <t>San Juan Bautista Tuxtepec</t>
         </is>
       </c>
       <c r="C427">
@@ -6020,7 +6020,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>SAN LORENZO VICTORIA</t>
+          <t>San Lorenzo Victoria</t>
         </is>
       </c>
       <c r="C428">
@@ -6033,7 +6033,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>SAN MIGUEL CHICAHUA</t>
+          <t>San Miguel Chicahua</t>
         </is>
       </c>
       <c r="C429">
@@ -6046,7 +6046,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>SAN PEDRO EL ALTO</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C430">
@@ -6059,7 +6059,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>SAN PEDRO HUAMELULA</t>
+          <t>San Pedro Huamelula</t>
         </is>
       </c>
       <c r="C431">
@@ -6072,7 +6072,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>SAN PEDRO JICAYÁN</t>
+          <t>San Pedro Jicayán</t>
         </is>
       </c>
       <c r="C432">
@@ -6085,7 +6085,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>SAN PEDRO POCHUTLA</t>
+          <t>San Pedro Pochutla</t>
         </is>
       </c>
       <c r="C433">
@@ -6098,7 +6098,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>SANTA CRUZ XITLA</t>
+          <t>Santa Cruz Xitla</t>
         </is>
       </c>
       <c r="C434">
@@ -6111,7 +6111,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>SANTA INÉS DEL MONTE</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C435">
@@ -6124,7 +6124,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>SANTA MARÍA TONAMECA</t>
+          <t>Santa María Tonameca</t>
         </is>
       </c>
       <c r="C436">
@@ -6137,7 +6137,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>SANTIAGO YAVEO</t>
+          <t>Santiago Yaveo</t>
         </is>
       </c>
       <c r="C437">
@@ -6150,7 +6150,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO IXCATLÁN</t>
+          <t>Santo Domingo Ixcatlán</t>
         </is>
       </c>
       <c r="C438">
@@ -6163,7 +6163,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO TEHUANTEPEC</t>
+          <t>Santo Domingo Tehuantepec</t>
         </is>
       </c>
       <c r="C439">
@@ -6176,7 +6176,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>TEPELMEME VILLA DE MORELOS</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C440">
@@ -6189,7 +6189,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>TLACOLULA DE MATAMOROS</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C441">
@@ -6202,7 +6202,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C442">
@@ -6215,12 +6215,12 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>ACAJETE</t>
+          <t>Acajete</t>
         </is>
       </c>
       <c r="C443">
@@ -6233,7 +6233,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>ATLIXCO</t>
+          <t>Atlixco</t>
         </is>
       </c>
       <c r="C444">
@@ -6246,7 +6246,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>CAÑADA MORELOS</t>
+          <t>Cañada Morelos</t>
         </is>
       </c>
       <c r="C445">
@@ -6259,7 +6259,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>CHIAUTLA</t>
+          <t>Chiautla</t>
         </is>
       </c>
       <c r="C446">
@@ -6272,7 +6272,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>CHIGNAHUAPAN</t>
+          <t>Chignahuapan</t>
         </is>
       </c>
       <c r="C447">
@@ -6285,7 +6285,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>COXCATLÁN</t>
+          <t>Coxcatlán</t>
         </is>
       </c>
       <c r="C448">
@@ -6298,7 +6298,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>HUAUCHINANGO</t>
+          <t>Huauchinango</t>
         </is>
       </c>
       <c r="C449">
@@ -6311,7 +6311,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>HUEHUETLA</t>
+          <t>Huehuetla</t>
         </is>
       </c>
       <c r="C450">
@@ -6324,7 +6324,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>HUEJOTZINGO</t>
+          <t>Huejotzingo</t>
         </is>
       </c>
       <c r="C451">
@@ -6337,7 +6337,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>HUEYAPAN</t>
+          <t>Hueyapan</t>
         </is>
       </c>
       <c r="C452">
@@ -6350,7 +6350,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>IZÚCAR DE MATAMOROS</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C453">
@@ -6363,7 +6363,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>LOS REYES DE JUÁREZ</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C454">
@@ -6376,7 +6376,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>PALMAR DE BRAVO</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C455">
@@ -6389,7 +6389,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>PIAXTLA</t>
+          <t>Piaxtla</t>
         </is>
       </c>
       <c r="C456">
@@ -6402,7 +6402,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="C457">
@@ -6415,7 +6415,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>QUECHOLAC</t>
+          <t>Quecholac</t>
         </is>
       </c>
       <c r="C458">
@@ -6428,7 +6428,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS CHOLULA</t>
+          <t>San Andrés Cholula</t>
         </is>
       </c>
       <c r="C459">
@@ -6441,7 +6441,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>SAN MARTÍN TEXMELUCAN</t>
+          <t>San Martín Texmelucan</t>
         </is>
       </c>
       <c r="C460">
@@ -6454,7 +6454,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>SAN PEDRO CHOLULA</t>
+          <t>San Pedro Cholula</t>
         </is>
       </c>
       <c r="C461">
@@ -6467,7 +6467,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>SAN SALVADOR EL SECO</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C462">
@@ -6480,7 +6480,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>SAN SALVADOR EL VERDE</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C463">
@@ -6493,7 +6493,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>TECAMACHALCO</t>
+          <t>Tecamachalco</t>
         </is>
       </c>
       <c r="C464">
@@ -6506,7 +6506,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>TEHUACÁN</t>
+          <t>Tehuacán</t>
         </is>
       </c>
       <c r="C465">
@@ -6519,7 +6519,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>TEPEACA</t>
+          <t>Tepeaca</t>
         </is>
       </c>
       <c r="C466">
@@ -6532,7 +6532,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>TEPEXI DE RODRÍGUEZ</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C467">
@@ -6545,7 +6545,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>TLACOTEPEC DE BENITO JUÁREZ</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C468">
@@ -6558,7 +6558,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>TLATLAUQUITEPEC</t>
+          <t>Tlatlauquitepec</t>
         </is>
       </c>
       <c r="C469">
@@ -6571,7 +6571,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>TOCHTEPEC</t>
+          <t>Tochtepec</t>
         </is>
       </c>
       <c r="C470">
@@ -6584,7 +6584,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>TULCINGO</t>
+          <t>Tulcingo</t>
         </is>
       </c>
       <c r="C471">
@@ -6597,7 +6597,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>ZACAPALA</t>
+          <t>Zacapala</t>
         </is>
       </c>
       <c r="C472">
@@ -6610,7 +6610,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>ZACAPOAXTLA</t>
+          <t>Zacapoaxtla</t>
         </is>
       </c>
       <c r="C473">
@@ -6623,7 +6623,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>ZACATLÁN</t>
+          <t>Zacatlán</t>
         </is>
       </c>
       <c r="C474">
@@ -6636,7 +6636,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C475">
@@ -6649,12 +6649,12 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>AMEALCO DE BONFIL</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C476">
@@ -6667,7 +6667,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>ARROYO SECO</t>
+          <t>Arroyo Seco</t>
         </is>
       </c>
       <c r="C477">
@@ -6680,7 +6680,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>CADEREYTA DE MONTES</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C478">
@@ -6693,7 +6693,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>CORREGIDORA</t>
+          <t>Corregidora</t>
         </is>
       </c>
       <c r="C479">
@@ -6706,7 +6706,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>JALPAN DE SERRA</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C480">
@@ -6719,7 +6719,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C481">
@@ -6732,7 +6732,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>PEDRO ESCOBEDO</t>
+          <t>Pedro Escobedo</t>
         </is>
       </c>
       <c r="C482">
@@ -6745,7 +6745,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>PEÑAMILLER</t>
+          <t>Peñamiller</t>
         </is>
       </c>
       <c r="C483">
@@ -6758,7 +6758,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>PINAL DE AMOLES</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C484">
@@ -6771,7 +6771,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="C485">
@@ -6784,7 +6784,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>SAN JOAQUÍN</t>
+          <t>San Joaquín</t>
         </is>
       </c>
       <c r="C486">
@@ -6797,7 +6797,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>SAN JUAN DEL RÍO</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C487">
@@ -6810,7 +6810,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>TEQUISQUIAPAN</t>
+          <t>Tequisquiapan</t>
         </is>
       </c>
       <c r="C488">
@@ -6823,7 +6823,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C489">
@@ -6836,12 +6836,12 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>QUINTANA ROO</t>
+          <t>Quintana Roo</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C490">
@@ -6854,7 +6854,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>FELIPE CARRILLO PUERTO</t>
+          <t>Felipe Carrillo Puerto</t>
         </is>
       </c>
       <c r="C491">
@@ -6867,7 +6867,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>OTHÓN P. BLANCO</t>
+          <t>Othón P. Blanco</t>
         </is>
       </c>
       <c r="C492">
@@ -6880,7 +6880,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C493">
@@ -6893,12 +6893,12 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>CHARCAS</t>
+          <t>Charcas</t>
         </is>
       </c>
       <c r="C494">
@@ -6911,7 +6911,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>CIUDAD VALLES</t>
+          <t>Ciudad Valles</t>
         </is>
       </c>
       <c r="C495">
@@ -6924,7 +6924,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>CÁRDENAS</t>
+          <t>Cárdenas</t>
         </is>
       </c>
       <c r="C496">
@@ -6937,7 +6937,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>EBANO</t>
+          <t>Ebano</t>
         </is>
       </c>
       <c r="C497">
@@ -6950,7 +6950,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>MATEHUALA</t>
+          <t>Matehuala</t>
         </is>
       </c>
       <c r="C498">
@@ -6963,7 +6963,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C499">
@@ -6976,7 +6976,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>SALINAS</t>
+          <t>Salinas</t>
         </is>
       </c>
       <c r="C500">
@@ -6989,7 +6989,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>SAN CIRO DE ACOSTA</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C501">
@@ -7002,7 +7002,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="C502">
@@ -7015,7 +7015,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>SAN NICOLÁS TOLENTINO</t>
+          <t>San Nicolás Tolentino</t>
         </is>
       </c>
       <c r="C503">
@@ -7028,7 +7028,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>SANTA CATARINA</t>
+          <t>Santa Catarina</t>
         </is>
       </c>
       <c r="C504">
@@ -7041,7 +7041,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO</t>
+          <t>Santo Domingo</t>
         </is>
       </c>
       <c r="C505">
@@ -7054,7 +7054,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>VILLA DE RAMOS</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C506">
@@ -7067,7 +7067,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C507">
@@ -7080,12 +7080,12 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>SINALOA</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>AHOME</t>
+          <t>Ahome</t>
         </is>
       </c>
       <c r="C508">
@@ -7098,7 +7098,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>CHOIX</t>
+          <t>Choix</t>
         </is>
       </c>
       <c r="C509">
@@ -7111,7 +7111,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>CULIACÁN</t>
+          <t>Culiacán</t>
         </is>
       </c>
       <c r="C510">
@@ -7124,7 +7124,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>EL FUERTE</t>
+          <t>El Fuerte</t>
         </is>
       </c>
       <c r="C511">
@@ -7137,7 +7137,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>GUASAVE</t>
+          <t>Guasave</t>
         </is>
       </c>
       <c r="C512">
@@ -7150,7 +7150,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>MAZATLÁN</t>
+          <t>Mazatlán</t>
         </is>
       </c>
       <c r="C513">
@@ -7163,7 +7163,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C514">
@@ -7176,7 +7176,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>SALVADOR ALVARADO</t>
+          <t>Salvador Alvarado</t>
         </is>
       </c>
       <c r="C515">
@@ -7189,7 +7189,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>SINALOA</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="C516">
@@ -7202,7 +7202,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C517">
@@ -7215,12 +7215,12 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>SONORA</t>
+          <t>Sonora</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>AGUA PRIETA</t>
+          <t>Agua Prieta</t>
         </is>
       </c>
       <c r="C518">
@@ -7233,7 +7233,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>ALAMOS</t>
+          <t>Alamos</t>
         </is>
       </c>
       <c r="C519">
@@ -7246,7 +7246,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>ARIZPE</t>
+          <t>Arizpe</t>
         </is>
       </c>
       <c r="C520">
@@ -7259,7 +7259,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>CABORCA</t>
+          <t>Caborca</t>
         </is>
       </c>
       <c r="C521">
@@ -7272,7 +7272,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>CAJEME</t>
+          <t>Cajeme</t>
         </is>
       </c>
       <c r="C522">
@@ -7285,7 +7285,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>CANANEA</t>
+          <t>Cananea</t>
         </is>
       </c>
       <c r="C523">
@@ -7298,7 +7298,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>CUMPAS</t>
+          <t>Cumpas</t>
         </is>
       </c>
       <c r="C524">
@@ -7311,7 +7311,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>EMPALME</t>
+          <t>Empalme</t>
         </is>
       </c>
       <c r="C525">
@@ -7324,7 +7324,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>GENERAL PLUTARCO ELÍAS CALLES</t>
+          <t>General Plutarco Elías Calles</t>
         </is>
       </c>
       <c r="C526">
@@ -7337,7 +7337,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>GUAYMAS</t>
+          <t>Guaymas</t>
         </is>
       </c>
       <c r="C527">
@@ -7350,7 +7350,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>HERMOSILLO</t>
+          <t>Hermosillo</t>
         </is>
       </c>
       <c r="C528">
@@ -7363,7 +7363,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>HUATABAMPO</t>
+          <t>Huatabampo</t>
         </is>
       </c>
       <c r="C529">
@@ -7376,7 +7376,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>MAGDALENA</t>
+          <t>Magdalena</t>
         </is>
       </c>
       <c r="C530">
@@ -7389,7 +7389,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>NACOZARI DE GARCÍA</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C531">
@@ -7402,7 +7402,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>NAVOJOA</t>
+          <t>Navojoa</t>
         </is>
       </c>
       <c r="C532">
@@ -7415,7 +7415,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C533">
@@ -7428,7 +7428,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>NOGALES</t>
+          <t>Nogales</t>
         </is>
       </c>
       <c r="C534">
@@ -7441,7 +7441,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>SAN LUIS RÍO COLORADO</t>
+          <t>San Luis Río Colorado</t>
         </is>
       </c>
       <c r="C535">
@@ -7454,7 +7454,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C536">
@@ -7467,12 +7467,12 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>TABASCO</t>
+          <t>Tabasco</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="C537">
@@ -7485,7 +7485,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>CÁRDENAS</t>
+          <t>Cárdenas</t>
         </is>
       </c>
       <c r="C538">
@@ -7498,7 +7498,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>EMILIANO ZAPATA</t>
+          <t>Emiliano Zapata</t>
         </is>
       </c>
       <c r="C539">
@@ -7511,7 +7511,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>HUIMANGUILLO</t>
+          <t>Huimanguillo</t>
         </is>
       </c>
       <c r="C540">
@@ -7524,7 +7524,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>TEAPA</t>
+          <t>Teapa</t>
         </is>
       </c>
       <c r="C541">
@@ -7537,7 +7537,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C542">
@@ -7550,12 +7550,12 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>TAMAULIPAS</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>EL MANTE</t>
+          <t>El Mante</t>
         </is>
       </c>
       <c r="C543">
@@ -7568,7 +7568,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>JAUMAVE</t>
+          <t>Jaumave</t>
         </is>
       </c>
       <c r="C544">
@@ -7581,7 +7581,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>MATAMOROS</t>
+          <t>Matamoros</t>
         </is>
       </c>
       <c r="C545">
@@ -7594,7 +7594,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>NUEVO LAREDO</t>
+          <t>Nuevo Laredo</t>
         </is>
       </c>
       <c r="C546">
@@ -7607,7 +7607,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>REYNOSA</t>
+          <t>Reynosa</t>
         </is>
       </c>
       <c r="C547">
@@ -7620,7 +7620,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>RÍO BRAVO</t>
+          <t>Río Bravo</t>
         </is>
       </c>
       <c r="C548">
@@ -7633,7 +7633,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>TAMPICO</t>
+          <t>Tampico</t>
         </is>
       </c>
       <c r="C549">
@@ -7646,7 +7646,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C550">
@@ -7659,12 +7659,12 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>AMAXAC DE GUERRERO</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C551">
@@ -7677,7 +7677,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>ATLANGATEPEC</t>
+          <t>Atlangatepec</t>
         </is>
       </c>
       <c r="C552">
@@ -7690,7 +7690,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>CHIAUTEMPAN</t>
+          <t>Chiautempan</t>
         </is>
       </c>
       <c r="C553">
@@ -7703,7 +7703,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>CONTLA DE JUAN CUAMATZI</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C554">
@@ -7716,7 +7716,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>HUAMANTLA</t>
+          <t>Huamantla</t>
         </is>
       </c>
       <c r="C555">
@@ -7729,7 +7729,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>NATÍVITAS</t>
+          <t>Natívitas</t>
         </is>
       </c>
       <c r="C556">
@@ -7742,7 +7742,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>PANOTLA</t>
+          <t>Panotla</t>
         </is>
       </c>
       <c r="C557">
@@ -7755,7 +7755,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="C558">
@@ -7768,7 +7768,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>TOTOLAC</t>
+          <t>Totolac</t>
         </is>
       </c>
       <c r="C559">
@@ -7781,7 +7781,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>XALTOCAN</t>
+          <t>Xaltocan</t>
         </is>
       </c>
       <c r="C560">
@@ -7794,7 +7794,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>XICOHTZINCO</t>
+          <t>Xicohtzinco</t>
         </is>
       </c>
       <c r="C561">
@@ -7807,7 +7807,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C562">
@@ -7820,12 +7820,12 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>VERACRUZ DE IGNACIO DE LA LLAVE</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>ACAJETE</t>
+          <t>Acajete</t>
         </is>
       </c>
       <c r="C563">
@@ -7838,7 +7838,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>ACATLÁN</t>
+          <t>Acatlán</t>
         </is>
       </c>
       <c r="C564">
@@ -7851,7 +7851,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>AGUA DULCE</t>
+          <t>Agua Dulce</t>
         </is>
       </c>
       <c r="C565">
@@ -7864,7 +7864,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>ALTOTONGA</t>
+          <t>Altotonga</t>
         </is>
       </c>
       <c r="C566">
@@ -7877,7 +7877,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>ATLAHUILCO</t>
+          <t>Atlahuilco</t>
         </is>
       </c>
       <c r="C567">
@@ -7890,7 +7890,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>ATOYAC</t>
+          <t>Atoyac</t>
         </is>
       </c>
       <c r="C568">
@@ -7903,7 +7903,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>CATEMACO</t>
+          <t>Catemaco</t>
         </is>
       </c>
       <c r="C569">
@@ -7916,7 +7916,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>CHACALTIANGUIS</t>
+          <t>Chacaltianguis</t>
         </is>
       </c>
       <c r="C570">
@@ -7929,7 +7929,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>COATZACOALCOS</t>
+          <t>Coatzacoalcos</t>
         </is>
       </c>
       <c r="C571">
@@ -7942,7 +7942,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>COSAMALOAPAN DE CARPIO</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C572">
@@ -7955,7 +7955,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>COSCOMATEPEC</t>
+          <t>Coscomatepec</t>
         </is>
       </c>
       <c r="C573">
@@ -7968,7 +7968,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>CÓRDOBA</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="C574">
@@ -7981,7 +7981,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>EMILIANO ZAPATA</t>
+          <t>Emiliano Zapata</t>
         </is>
       </c>
       <c r="C575">
@@ -7994,7 +7994,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>GUTIÉRREZ ZAMORA</t>
+          <t>Gutiérrez Zamora</t>
         </is>
       </c>
       <c r="C576">
@@ -8007,7 +8007,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>HIDALGOTITLÁN</t>
+          <t>Hidalgotitlán</t>
         </is>
       </c>
       <c r="C577">
@@ -8020,7 +8020,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>HUATUSCO</t>
+          <t>Huatusco</t>
         </is>
       </c>
       <c r="C578">
@@ -8033,7 +8033,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>ISLA</t>
+          <t>Isla</t>
         </is>
       </c>
       <c r="C579">
@@ -8046,7 +8046,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>JILOTEPEC</t>
+          <t>Jilotepec</t>
         </is>
       </c>
       <c r="C580">
@@ -8059,7 +8059,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>JUAN RODRÍGUEZ CLARA</t>
+          <t>Juan Rodríguez Clara</t>
         </is>
       </c>
       <c r="C581">
@@ -8072,7 +8072,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>JUCHIQUE DE FERRER</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C582">
@@ -8085,7 +8085,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>JÁLTIPAN</t>
+          <t>Jáltipan</t>
         </is>
       </c>
       <c r="C583">
@@ -8098,7 +8098,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>LAS CHOAPAS</t>
+          <t>Las Choapas</t>
         </is>
       </c>
       <c r="C584">
@@ -8111,7 +8111,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>LERDO DE TEJADA</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C585">
@@ -8124,7 +8124,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>MARIANO ESCOBEDO</t>
+          <t>Mariano Escobedo</t>
         </is>
       </c>
       <c r="C586">
@@ -8137,7 +8137,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>MARTÍNEZ DE LA TORRE</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C587">
@@ -8150,7 +8150,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>MEDELLÍN</t>
+          <t>Medellín</t>
         </is>
       </c>
       <c r="C588">
@@ -8163,7 +8163,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>MINATITLÁN</t>
+          <t>Minatitlán</t>
         </is>
       </c>
       <c r="C589">
@@ -8176,7 +8176,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>MISANTLA</t>
+          <t>Misantla</t>
         </is>
       </c>
       <c r="C590">
@@ -8189,7 +8189,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C591">
@@ -8202,7 +8202,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>OTATITLÁN</t>
+          <t>Otatitlán</t>
         </is>
       </c>
       <c r="C592">
@@ -8215,7 +8215,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>PAPANTLA</t>
+          <t>Papantla</t>
         </is>
       </c>
       <c r="C593">
@@ -8228,7 +8228,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>PLAYA VICENTE</t>
+          <t>Playa Vicente</t>
         </is>
       </c>
       <c r="C594">
@@ -8241,7 +8241,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>POZA RICA DE HIDALGO</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C595">
@@ -8254,7 +8254,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>RÍO BLANCO</t>
+          <t>Río Blanco</t>
         </is>
       </c>
       <c r="C596">
@@ -8267,7 +8267,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS TUXTLA</t>
+          <t>San Andrés Tuxtla</t>
         </is>
       </c>
       <c r="C597">
@@ -8280,7 +8280,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>SAN JUAN EVANGELISTA</t>
+          <t>San Juan Evangelista</t>
         </is>
       </c>
       <c r="C598">
@@ -8293,7 +8293,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>SOLEDAD ATZOMPA</t>
+          <t>Soledad Atzompa</t>
         </is>
       </c>
       <c r="C599">
@@ -8306,7 +8306,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>TAMIAHUA</t>
+          <t>Tamiahua</t>
         </is>
       </c>
       <c r="C600">
@@ -8319,7 +8319,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>TEPETLÁN</t>
+          <t>Tepetlán</t>
         </is>
       </c>
       <c r="C601">
@@ -8332,7 +8332,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>TEXISTEPEC</t>
+          <t>Texistepec</t>
         </is>
       </c>
       <c r="C602">
@@ -8345,7 +8345,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>TIERRA BLANCA</t>
+          <t>Tierra Blanca</t>
         </is>
       </c>
       <c r="C603">
@@ -8358,7 +8358,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>TLALIXCOYAN</t>
+          <t>Tlalixcoyan</t>
         </is>
       </c>
       <c r="C604">
@@ -8371,7 +8371,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>TRES VALLES</t>
+          <t>Tres Valles</t>
         </is>
       </c>
       <c r="C605">
@@ -8384,7 +8384,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C606">
@@ -8397,7 +8397,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>VERACRUZ</t>
+          <t>Veracruz</t>
         </is>
       </c>
       <c r="C607">
@@ -8410,7 +8410,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>XALAPA</t>
+          <t>Xalapa</t>
         </is>
       </c>
       <c r="C608">
@@ -8423,7 +8423,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>YANGA</t>
+          <t>Yanga</t>
         </is>
       </c>
       <c r="C609">
@@ -8436,7 +8436,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>ZONGOLICA</t>
+          <t>Zongolica</t>
         </is>
       </c>
       <c r="C610">
@@ -8449,7 +8449,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>ÁLAMO TEMAPACHE</t>
+          <t>Álamo Temapache</t>
         </is>
       </c>
       <c r="C611">
@@ -8462,7 +8462,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C612">
@@ -8475,12 +8475,12 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>YUCATÁN</t>
+          <t>Yucatán</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
+          <t>Mérida</t>
         </is>
       </c>
       <c r="C613">
@@ -8493,7 +8493,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>PETO</t>
+          <t>Peto</t>
         </is>
       </c>
       <c r="C614">
@@ -8506,7 +8506,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C615">
@@ -8519,12 +8519,12 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>CALERA</t>
+          <t>Calera</t>
         </is>
       </c>
       <c r="C616">
@@ -8537,7 +8537,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>CAÑITAS DE FELIPE PESCADOR</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C617">
@@ -8550,7 +8550,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>CHALCHIHUITES</t>
+          <t>Chalchihuites</t>
         </is>
       </c>
       <c r="C618">
@@ -8563,7 +8563,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>CONCEPCIÓN DEL ORO</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C619">
@@ -8576,7 +8576,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C620">
@@ -8589,7 +8589,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>FRESNILLO</t>
+          <t>Fresnillo</t>
         </is>
       </c>
       <c r="C621">
@@ -8602,7 +8602,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>GENARO CODINA</t>
+          <t>Genaro Codina</t>
         </is>
       </c>
       <c r="C622">
@@ -8615,7 +8615,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>GENERAL ENRIQUE ESTRADA</t>
+          <t>General Enrique Estrada</t>
         </is>
       </c>
       <c r="C623">
@@ -8628,7 +8628,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>GENERAL FRANCISCO R. MURGUÍA</t>
+          <t>General Francisco R. Murguía</t>
         </is>
       </c>
       <c r="C624">
@@ -8641,7 +8641,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>GENERAL PÁNFILO NATERA</t>
+          <t>General Pánfilo Natera</t>
         </is>
       </c>
       <c r="C625">
@@ -8654,7 +8654,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>Guadalupe</t>
         </is>
       </c>
       <c r="C626">
@@ -8667,7 +8667,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>JALPA</t>
+          <t>Jalpa</t>
         </is>
       </c>
       <c r="C627">
@@ -8680,7 +8680,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>JEREZ</t>
+          <t>Jerez</t>
         </is>
       </c>
       <c r="C628">
@@ -8693,7 +8693,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>JUAN ALDAMA</t>
+          <t>Juan Aldama</t>
         </is>
       </c>
       <c r="C629">
@@ -8706,7 +8706,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>LORETO</t>
+          <t>Loreto</t>
         </is>
       </c>
       <c r="C630">
@@ -8719,7 +8719,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>LUIS MOYA</t>
+          <t>Luis Moya</t>
         </is>
       </c>
       <c r="C631">
@@ -8732,7 +8732,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>MAZAPIL</t>
+          <t>Mazapil</t>
         </is>
       </c>
       <c r="C632">
@@ -8745,7 +8745,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>MIGUEL AUZA</t>
+          <t>Miguel Auza</t>
         </is>
       </c>
       <c r="C633">
@@ -8758,7 +8758,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>MONTE ESCOBEDO</t>
+          <t>Monte Escobedo</t>
         </is>
       </c>
       <c r="C634">
@@ -8771,7 +8771,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>MOYAHUA DE ESTRADA</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C635">
@@ -8784,7 +8784,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>NOCHISTLÁN DE MEJÍA</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C636">
@@ -8797,7 +8797,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>NORIA DE ÁNGELES</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C637">
@@ -8810,7 +8810,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>OJOCALIENTE</t>
+          <t>Ojocaliente</t>
         </is>
       </c>
       <c r="C638">
@@ -8823,7 +8823,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>PINOS</t>
+          <t>Pinos</t>
         </is>
       </c>
       <c r="C639">
@@ -8836,7 +8836,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>PÁNUCO</t>
+          <t>Pánuco</t>
         </is>
       </c>
       <c r="C640">
@@ -8849,7 +8849,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>RÍO GRANDE</t>
+          <t>Río Grande</t>
         </is>
       </c>
       <c r="C641">
@@ -8862,7 +8862,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>SAIN ALTO</t>
+          <t>Sain Alto</t>
         </is>
       </c>
       <c r="C642">
@@ -8875,7 +8875,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>SOMBRERETE</t>
+          <t>Sombrerete</t>
         </is>
       </c>
       <c r="C643">
@@ -8888,7 +8888,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>TEPECHITLÁN</t>
+          <t>Tepechitlán</t>
         </is>
       </c>
       <c r="C644">
@@ -8901,7 +8901,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>VALPARAÍSO</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="C645">
@@ -8914,7 +8914,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>VILLA DE COS</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C646">
@@ -8927,7 +8927,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>VILLA GARCÍA</t>
+          <t>Villa García</t>
         </is>
       </c>
       <c r="C647">
@@ -8940,7 +8940,7 @@
     <row r="648">
       <c r="B648" t="inlineStr">
         <is>
-          <t>VILLA HIDALGO</t>
+          <t>Villa Hidalgo</t>
         </is>
       </c>
       <c r="C648">
@@ -8953,7 +8953,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="C649">
@@ -8966,7 +8966,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C650">
@@ -8979,7 +8979,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C651">
@@ -8987,41 +8987,6 @@
       </c>
       <c r="D651">
         <v>1</v>
-      </c>
-    </row>
-    <row r="653">
-      <c r="A653" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 789,030</t>
-        </is>
-      </c>
-    </row>
-    <row r="654">
-      <c r="A654" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="655">
-      <c r="A655" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="656">
-      <c r="A656" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="657">
-      <c r="A657" t="inlineStr">
-        <is>
-          <t>Noviembre de 2024</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/NEW_MEXICO_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/NEW_MEXICO_2023.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Calvillo</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Cosío</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
@@ -450,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Rincón De Romos</t>
@@ -463,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Tepezalá</t>
@@ -476,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -507,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Mexicali</t>
@@ -520,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -533,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -577,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Los Cabos</t>
@@ -590,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Carmen</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Total</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Catazajá</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Chiapa De Corzo</t>
@@ -691,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Chicomuselo</t>
@@ -704,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Cintalapa</t>
@@ -717,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>El Bosque</t>
@@ -730,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -743,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Frontera Hidalgo</t>
@@ -756,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Huehuetán</t>
@@ -769,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -782,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -795,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -808,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Palenque</t>
@@ -821,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Pijijiapan</t>
@@ -834,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>San Cristóbal De Las Casas</t>
@@ -847,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -860,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Suchiate</t>
@@ -873,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -886,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Tapalapa</t>
@@ -899,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Tecpatán</t>
@@ -912,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -925,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Tuxtla Chico</t>
@@ -938,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Tzimol</t>
@@ -951,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -964,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Villa Comaltitlán</t>
@@ -977,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Villa Corzo</t>
@@ -990,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1021,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Aldama</t>
@@ -1034,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Allende</t>
@@ -1047,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Aquiles Serdán</t>
@@ -1060,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Ascensión</t>
@@ -1073,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Bachíniva</t>
@@ -1086,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Balleza</t>
@@ -1099,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Batopilas</t>
@@ -1112,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Bocoyna</t>
@@ -1125,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Buenaventura</t>
@@ -1138,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Camargo</t>
@@ -1151,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Carichí</t>
@@ -1164,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Casas Grandes</t>
@@ -1177,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -1190,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Coronado</t>
@@ -1203,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Coyame Del Sotol</t>
@@ -1216,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1229,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Cusihuiriachi</t>
@@ -1242,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -1255,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Dr. Belisario Domínguez</t>
@@ -1268,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>El Tule</t>
@@ -1281,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Galeana</t>
@@ -1294,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Gran Morelos</t>
@@ -1307,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Guachochi</t>
@@ -1320,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -1333,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Guadalupe Y Calvo</t>
@@ -1346,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Guerrero</t>
@@ -1359,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Gómez Farías</t>
@@ -1372,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -1385,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Ignacio Zaragoza</t>
@@ -1398,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Janos</t>
@@ -1411,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Jiménez</t>
@@ -1424,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Julimes</t>
@@ -1437,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -1450,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>La Cruz</t>
@@ -1463,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>López</t>
@@ -1476,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Madera</t>
@@ -1489,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Matachí</t>
@@ -1502,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -1515,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Meoqui</t>
@@ -1528,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -1541,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Moris</t>
@@ -1554,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Namiquipa</t>
@@ -1567,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
@@ -1580,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Nonoava</t>
@@ -1593,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Nuevo Casas Grandes</t>
@@ -1606,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -1619,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Ojinaga</t>
@@ -1632,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Praxedis G. Guerrero</t>
@@ -1645,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Riva Palacio</t>
@@ -1658,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Rosales</t>
@@ -1671,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Rosario</t>
@@ -1684,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>San Francisco De Borja</t>
@@ -1697,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>San Francisco Del Oro</t>
@@ -1710,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Santa Bárbara</t>
@@ -1723,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Santa Isabel</t>
@@ -1736,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Satevó</t>
@@ -1749,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Saucillo</t>
@@ -1762,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Temósachic</t>
@@ -1775,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Urique</t>
@@ -1788,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Uruachi</t>
@@ -1801,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Valle De Zaragoza</t>
@@ -1814,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1845,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -1858,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -1871,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1884,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1897,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -1910,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1923,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>La Magdalena Contreras</t>
@@ -1936,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -1949,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -1962,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Tláhuac</t>
@@ -1975,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1988,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Álvaro Obregón</t>
@@ -2001,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2032,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Allende</t>
@@ -2045,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Cuatro Ciénegas</t>
@@ -2058,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Francisco I. Madero</t>
@@ -2071,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -2084,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Monclova</t>
@@ -2097,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Múzquiz</t>
@@ -2110,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Sabinas</t>
@@ -2123,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Saltillo</t>
@@ -2136,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>San Juan De Sabinas</t>
@@ -2149,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>San Pedro</t>
@@ -2162,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Sierra Mojada</t>
@@ -2175,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Torreón</t>
@@ -2188,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Viesca</t>
@@ -2201,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -2214,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2245,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Ixtlahuacán</t>
@@ -2258,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2289,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Canelas</t>
@@ -2302,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Coneto De Comonfort</t>
@@ -2315,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Cuencamé</t>
@@ -2328,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -2341,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>El Oro</t>
@@ -2354,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Francisco I. Madero</t>
@@ -2367,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -2380,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Guanaceví</t>
@@ -2393,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Gómez Palacio</t>
@@ -2406,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -2419,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Indé</t>
@@ -2432,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Lerdo</t>
@@ -2445,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Mapimí</t>
@@ -2458,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Mezquital</t>
@@ -2471,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Nazas</t>
@@ -2484,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
@@ -2497,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Nombre De Dios</t>
@@ -2510,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Nuevo Ideal</t>
@@ -2523,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -2536,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Peñón Blanco</t>
@@ -2549,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Poanas</t>
@@ -2562,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Pueblo Nuevo</t>
@@ -2575,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Pánuco De Coronado</t>
@@ -2588,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Rodeo</t>
@@ -2601,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>San Bernardo</t>
@@ -2614,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>San Dimas</t>
@@ -2627,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>San Juan De Guadalupe</t>
@@ -2640,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -2653,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>San Luis Del Cordero</t>
@@ -2666,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>San Pedro Del Gallo</t>
@@ -2679,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Santa Clara</t>
@@ -2692,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Santiago Papasquiaro</t>
@@ -2705,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Súchil</t>
@@ -2718,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Tepehuanes</t>
@@ -2731,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Tlahualilo</t>
@@ -2744,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Topia</t>
@@ -2757,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -2770,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2801,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Amatepec</t>
@@ -2814,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Atlacomulco</t>
@@ -2827,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Atlautla</t>
@@ -2840,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Chicoloapan</t>
@@ -2853,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Chimalhuacán</t>
@@ -2866,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Cuautitlán</t>
@@ -2879,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -2892,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Jilotepec</t>
@@ -2905,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -2918,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -2931,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -2944,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -2957,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>San José Del Rincón</t>
@@ -2970,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>San Martín De Las Pirámides</t>
@@ -2983,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>Soyaniquilpan De Juárez</t>
@@ -2996,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -3009,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Tecámac</t>
@@ -3022,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -3035,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Temascalcingo</t>
@@ -3048,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Temascaltepec</t>
@@ -3061,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -3074,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Tenango Del Valle</t>
@@ -3087,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Teoloyucan</t>
@@ -3100,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Texcoco</t>
@@ -3113,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Timilpan</t>
@@ -3126,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -3139,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Tlatlaya</t>
@@ -3152,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -3165,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Villa Victoria</t>
@@ -3178,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Zacualpan</t>
@@ -3191,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3222,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>Acámbaro</t>
@@ -3235,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>Apaseo El Alto</t>
@@ -3248,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -3261,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Coroneo</t>
@@ -3274,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Cuerámaro</t>
@@ -3287,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Doctor Mora</t>
@@ -3300,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -3313,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -3326,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Huanímaro</t>
@@ -3339,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -3352,6 +4412,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Jerécuaro</t>
@@ -3365,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>León</t>
@@ -3378,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -3391,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Moroleón</t>
@@ -3404,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>Pueblo Nuevo</t>
@@ -3417,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Purísima Del Rincón</t>
@@ -3430,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -3443,6 +4538,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>Romita</t>
@@ -3456,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -3469,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>San Diego De La Unión</t>
@@ -3482,6 +4592,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>San Felipe</t>
@@ -3495,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>San Francisco Del Rincón</t>
@@ -3508,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>San José Iturbide</t>
@@ -3521,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>San Miguel De Allende</t>
@@ -3534,6 +4664,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>Santa Cruz De Juventino Rosas</t>
@@ -3547,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>Uriangato</t>
@@ -3560,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -3573,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -3586,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -3599,6 +4754,11 @@
       </c>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3630,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Ajuchitlán Del Progreso</t>
@@ -3643,6 +4808,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -3656,6 +4826,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>Atoyac De Álvarez</t>
@@ -3669,6 +4844,11 @@
       </c>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -3682,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>Azoyú</t>
@@ -3695,6 +4880,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -3708,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>Cocula</t>
@@ -3721,6 +4916,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>Coyuca De Benítez</t>
@@ -3734,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>Coyuca De Catalán</t>
@@ -3747,6 +4952,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>Cuetzala Del Progreso</t>
@@ -3760,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Eduardo Neri</t>
@@ -3773,6 +4988,11 @@
       </c>
     </row>
     <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
           <t>Florencio Villarreal</t>
@@ -3786,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -3799,6 +5024,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -3812,6 +5042,11 @@
       </c>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -3825,6 +5060,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>Petatlán</t>
@@ -3838,6 +5078,11 @@
       </c>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>Pungarabato</t>
@@ -3851,6 +5096,11 @@
       </c>
     </row>
     <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B264" t="inlineStr">
         <is>
           <t>Quechultenango</t>
@@ -3864,6 +5114,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -3877,6 +5132,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -3890,6 +5150,11 @@
       </c>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>Teloloapan</t>
@@ -3903,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>Tepecoacuilco De Trujano</t>
@@ -3916,6 +5186,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -3929,6 +5204,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -3942,6 +5222,11 @@
       </c>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3973,6 +5258,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Actopan</t>
@@ -3986,6 +5276,11 @@
       </c>
     </row>
     <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B274" t="inlineStr">
         <is>
           <t>Apan</t>
@@ -3999,6 +5294,11 @@
       </c>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>Huasca De Ocampo</t>
@@ -4012,6 +5312,11 @@
       </c>
     </row>
     <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>Huichapa</t>
@@ -4025,6 +5330,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>Huichapan</t>
@@ -4038,6 +5348,11 @@
       </c>
     </row>
     <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>Mixquiahuala De Juárez</t>
@@ -4051,6 +5366,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>Nicolás Flores</t>
@@ -4064,6 +5384,11 @@
       </c>
     </row>
     <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -4077,6 +5402,11 @@
       </c>
     </row>
     <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>Progreso De Obregón</t>
@@ -4090,6 +5420,11 @@
       </c>
     </row>
     <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B282" t="inlineStr">
         <is>
           <t>San Agustín Tlaxiaca</t>
@@ -4103,6 +5438,11 @@
       </c>
     </row>
     <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B283" t="inlineStr">
         <is>
           <t>San Felipe Orizatlán</t>
@@ -4116,6 +5456,11 @@
       </c>
     </row>
     <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B284" t="inlineStr">
         <is>
           <t>Tizayuca</t>
@@ -4129,6 +5474,11 @@
       </c>
     </row>
     <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B285" t="inlineStr">
         <is>
           <t>Tula De Allende</t>
@@ -4142,6 +5492,11 @@
       </c>
     </row>
     <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B286" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -4155,6 +5510,11 @@
       </c>
     </row>
     <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B287" t="inlineStr">
         <is>
           <t>Xochicoatlán</t>
@@ -4168,6 +5528,11 @@
       </c>
     </row>
     <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B288" t="inlineStr">
         <is>
           <t>Zimapán</t>
@@ -4181,6 +5546,11 @@
       </c>
     </row>
     <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B289" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4212,6 +5582,11 @@
       </c>
     </row>
     <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B291" t="inlineStr">
         <is>
           <t>Ameca</t>
@@ -4225,6 +5600,11 @@
       </c>
     </row>
     <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B292" t="inlineStr">
         <is>
           <t>Atengo</t>
@@ -4238,6 +5618,11 @@
       </c>
     </row>
     <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B293" t="inlineStr">
         <is>
           <t>Atotonilco El Alto</t>
@@ -4251,6 +5636,11 @@
       </c>
     </row>
     <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B294" t="inlineStr">
         <is>
           <t>Autlán De Navarro</t>
@@ -4264,6 +5654,11 @@
       </c>
     </row>
     <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B295" t="inlineStr">
         <is>
           <t>Bolaños</t>
@@ -4277,6 +5672,11 @@
       </c>
     </row>
     <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B296" t="inlineStr">
         <is>
           <t>Casimiro Castillo</t>
@@ -4290,6 +5690,11 @@
       </c>
     </row>
     <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B297" t="inlineStr">
         <is>
           <t>Cañadas De Obregón</t>
@@ -4303,6 +5708,11 @@
       </c>
     </row>
     <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B298" t="inlineStr">
         <is>
           <t>El Limón</t>
@@ -4316,6 +5726,11 @@
       </c>
     </row>
     <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>Encarnación De Díaz</t>
@@ -4329,6 +5744,11 @@
       </c>
     </row>
     <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B300" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -4342,6 +5762,11 @@
       </c>
     </row>
     <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B301" t="inlineStr">
         <is>
           <t>Gómez Farías</t>
@@ -4355,6 +5780,11 @@
       </c>
     </row>
     <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B302" t="inlineStr">
         <is>
           <t>Huejuquilla El Alto</t>
@@ -4368,6 +5798,11 @@
       </c>
     </row>
     <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B303" t="inlineStr">
         <is>
           <t>Huejúcar</t>
@@ -4381,6 +5816,11 @@
       </c>
     </row>
     <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B304" t="inlineStr">
         <is>
           <t>Ixtlahuacán Del Río</t>
@@ -4394,6 +5834,11 @@
       </c>
     </row>
     <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B305" t="inlineStr">
         <is>
           <t>Jalostotitlán</t>
@@ -4407,6 +5852,11 @@
       </c>
     </row>
     <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B306" t="inlineStr">
         <is>
           <t>Jamay</t>
@@ -4420,6 +5870,11 @@
       </c>
     </row>
     <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B307" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -4433,6 +5888,11 @@
       </c>
     </row>
     <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B308" t="inlineStr">
         <is>
           <t>Magdalena</t>
@@ -4446,6 +5906,11 @@
       </c>
     </row>
     <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B309" t="inlineStr">
         <is>
           <t>Mascota</t>
@@ -4459,6 +5924,11 @@
       </c>
     </row>
     <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B310" t="inlineStr">
         <is>
           <t>Mezquitic</t>
@@ -4472,6 +5942,11 @@
       </c>
     </row>
     <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B311" t="inlineStr">
         <is>
           <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
@@ -4485,6 +5960,11 @@
       </c>
     </row>
     <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B312" t="inlineStr">
         <is>
           <t>Pihuamo</t>
@@ -4498,6 +5978,11 @@
       </c>
     </row>
     <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B313" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -4511,6 +5996,11 @@
       </c>
     </row>
     <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B314" t="inlineStr">
         <is>
           <t>Quitupan</t>
@@ -4524,6 +6014,11 @@
       </c>
     </row>
     <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B315" t="inlineStr">
         <is>
           <t>San Diego De Alejandría</t>
@@ -4537,6 +6032,11 @@
       </c>
     </row>
     <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B316" t="inlineStr">
         <is>
           <t>San Gabriel</t>
@@ -4550,6 +6050,11 @@
       </c>
     </row>
     <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B317" t="inlineStr">
         <is>
           <t>San Julián</t>
@@ -4563,6 +6068,11 @@
       </c>
     </row>
     <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B318" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -4576,6 +6086,11 @@
       </c>
     </row>
     <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B319" t="inlineStr">
         <is>
           <t>San Pedro Tlaquepaque</t>
@@ -4589,6 +6104,11 @@
       </c>
     </row>
     <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B320" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -4602,6 +6122,11 @@
       </c>
     </row>
     <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B321" t="inlineStr">
         <is>
           <t>Talpa De Allende</t>
@@ -4615,6 +6140,11 @@
       </c>
     </row>
     <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B322" t="inlineStr">
         <is>
           <t>Tamazula De Gordiano</t>
@@ -4628,6 +6158,11 @@
       </c>
     </row>
     <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B323" t="inlineStr">
         <is>
           <t>Tecalitlán</t>
@@ -4641,6 +6176,11 @@
       </c>
     </row>
     <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B324" t="inlineStr">
         <is>
           <t>Teocaltiche</t>
@@ -4654,6 +6194,11 @@
       </c>
     </row>
     <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B325" t="inlineStr">
         <is>
           <t>Teocuitatlán De Corona</t>
@@ -4667,6 +6212,11 @@
       </c>
     </row>
     <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B326" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -4680,6 +6230,11 @@
       </c>
     </row>
     <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B327" t="inlineStr">
         <is>
           <t>Tequila</t>
@@ -4693,6 +6248,11 @@
       </c>
     </row>
     <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B328" t="inlineStr">
         <is>
           <t>Tlajomulco De Zúñiga</t>
@@ -4706,6 +6266,11 @@
       </c>
     </row>
     <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B329" t="inlineStr">
         <is>
           <t>Tomatlán</t>
@@ -4719,6 +6284,11 @@
       </c>
     </row>
     <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B330" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -4732,6 +6302,11 @@
       </c>
     </row>
     <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B331" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -4745,6 +6320,11 @@
       </c>
     </row>
     <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B332" t="inlineStr">
         <is>
           <t>Unión De Tula</t>
@@ -4758,6 +6338,11 @@
       </c>
     </row>
     <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B333" t="inlineStr">
         <is>
           <t>Valle De Guadalupe</t>
@@ -4771,6 +6356,11 @@
       </c>
     </row>
     <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B334" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -4784,6 +6374,11 @@
       </c>
     </row>
     <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B335" t="inlineStr">
         <is>
           <t>Villa Purificación</t>
@@ -4797,6 +6392,11 @@
       </c>
     </row>
     <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B336" t="inlineStr">
         <is>
           <t>Yahualica De González Gallo</t>
@@ -4810,6 +6410,11 @@
       </c>
     </row>
     <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B337" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -4823,6 +6428,11 @@
       </c>
     </row>
     <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B338" t="inlineStr">
         <is>
           <t>Zapotiltic</t>
@@ -4836,6 +6446,11 @@
       </c>
     </row>
     <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B339" t="inlineStr">
         <is>
           <t>Zapotlanejo</t>
@@ -4849,6 +6464,11 @@
       </c>
     </row>
     <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B340" t="inlineStr">
         <is>
           <t>Zapotlán El Grande</t>
@@ -4862,6 +6482,11 @@
       </c>
     </row>
     <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B341" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4893,6 +6518,11 @@
       </c>
     </row>
     <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B343" t="inlineStr">
         <is>
           <t>Apatzingán</t>
@@ -4906,6 +6536,11 @@
       </c>
     </row>
     <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B344" t="inlineStr">
         <is>
           <t>Aporo</t>
@@ -4919,6 +6554,11 @@
       </c>
     </row>
     <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B345" t="inlineStr">
         <is>
           <t>Briseñas</t>
@@ -4932,6 +6572,11 @@
       </c>
     </row>
     <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B346" t="inlineStr">
         <is>
           <t>Buenavista</t>
@@ -4945,6 +6590,11 @@
       </c>
     </row>
     <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B347" t="inlineStr">
         <is>
           <t>Chucándiro</t>
@@ -4958,6 +6608,11 @@
       </c>
     </row>
     <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B348" t="inlineStr">
         <is>
           <t>Coalcomán De Vázquez Pallares</t>
@@ -4971,6 +6626,11 @@
       </c>
     </row>
     <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B349" t="inlineStr">
         <is>
           <t>Cojumatlán De Régules</t>
@@ -4984,6 +6644,11 @@
       </c>
     </row>
     <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B350" t="inlineStr">
         <is>
           <t>Contepec</t>
@@ -4997,6 +6662,11 @@
       </c>
     </row>
     <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B351" t="inlineStr">
         <is>
           <t>Epitacio Huerta</t>
@@ -5010,6 +6680,11 @@
       </c>
     </row>
     <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B352" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -5023,6 +6698,11 @@
       </c>
     </row>
     <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B353" t="inlineStr">
         <is>
           <t>La Huacana</t>
@@ -5036,6 +6716,11 @@
       </c>
     </row>
     <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B354" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -5049,6 +6734,11 @@
       </c>
     </row>
     <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B355" t="inlineStr">
         <is>
           <t>Los Reyes</t>
@@ -5062,6 +6752,11 @@
       </c>
     </row>
     <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B356" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -5075,6 +6770,11 @@
       </c>
     </row>
     <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B357" t="inlineStr">
         <is>
           <t>Madero</t>
@@ -5088,6 +6788,11 @@
       </c>
     </row>
     <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B358" t="inlineStr">
         <is>
           <t>Maravatío</t>
@@ -5101,6 +6806,11 @@
       </c>
     </row>
     <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B359" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -5114,6 +6824,11 @@
       </c>
     </row>
     <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B360" t="inlineStr">
         <is>
           <t>Múgica</t>
@@ -5127,6 +6842,11 @@
       </c>
     </row>
     <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B361" t="inlineStr">
         <is>
           <t>Nocupétaro</t>
@@ -5140,6 +6860,11 @@
       </c>
     </row>
     <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B362" t="inlineStr">
         <is>
           <t>Numarán</t>
@@ -5153,6 +6878,11 @@
       </c>
     </row>
     <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B363" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -5166,6 +6896,11 @@
       </c>
     </row>
     <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B364" t="inlineStr">
         <is>
           <t>Paracho</t>
@@ -5179,6 +6914,11 @@
       </c>
     </row>
     <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B365" t="inlineStr">
         <is>
           <t>Parácuaro</t>
@@ -5192,6 +6932,11 @@
       </c>
     </row>
     <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B366" t="inlineStr">
         <is>
           <t>Peribán</t>
@@ -5205,6 +6950,11 @@
       </c>
     </row>
     <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B367" t="inlineStr">
         <is>
           <t>Pátzcuaro</t>
@@ -5218,6 +6968,11 @@
       </c>
     </row>
     <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B368" t="inlineStr">
         <is>
           <t>Queréndaro</t>
@@ -5231,6 +6986,11 @@
       </c>
     </row>
     <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B369" t="inlineStr">
         <is>
           <t>Susupuato</t>
@@ -5244,6 +7004,11 @@
       </c>
     </row>
     <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B370" t="inlineStr">
         <is>
           <t>Tancítaro</t>
@@ -5257,6 +7022,11 @@
       </c>
     </row>
     <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B371" t="inlineStr">
         <is>
           <t>Tangancícuaro</t>
@@ -5270,6 +7040,11 @@
       </c>
     </row>
     <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B372" t="inlineStr">
         <is>
           <t>Taretan</t>
@@ -5283,6 +7058,11 @@
       </c>
     </row>
     <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B373" t="inlineStr">
         <is>
           <t>Tiquicheo De Nicolás Romero</t>
@@ -5296,6 +7076,11 @@
       </c>
     </row>
     <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B374" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -5309,6 +7094,11 @@
       </c>
     </row>
     <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B375" t="inlineStr">
         <is>
           <t>Tzintzuntzan</t>
@@ -5322,6 +7112,11 @@
       </c>
     </row>
     <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B376" t="inlineStr">
         <is>
           <t>Tzitzio</t>
@@ -5335,6 +7130,11 @@
       </c>
     </row>
     <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B377" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -5348,6 +7148,11 @@
       </c>
     </row>
     <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B378" t="inlineStr">
         <is>
           <t>Vista Hermosa</t>
@@ -5361,6 +7166,11 @@
       </c>
     </row>
     <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B379" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -5374,6 +7184,11 @@
       </c>
     </row>
     <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B380" t="inlineStr">
         <is>
           <t>Zinapécuaro</t>
@@ -5387,6 +7202,11 @@
       </c>
     </row>
     <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B381" t="inlineStr">
         <is>
           <t>Ziracuaretiro</t>
@@ -5400,6 +7220,11 @@
       </c>
     </row>
     <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B382" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -5413,6 +7238,11 @@
       </c>
     </row>
     <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B383" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5444,6 +7274,11 @@
       </c>
     </row>
     <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B385" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -5457,6 +7292,11 @@
       </c>
     </row>
     <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B386" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -5470,6 +7310,11 @@
       </c>
     </row>
     <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B387" t="inlineStr">
         <is>
           <t>Jojutla</t>
@@ -5483,6 +7328,11 @@
       </c>
     </row>
     <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B388" t="inlineStr">
         <is>
           <t>Puente De Ixtla</t>
@@ -5496,6 +7346,11 @@
       </c>
     </row>
     <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B389" t="inlineStr">
         <is>
           <t>Temixco</t>
@@ -5509,6 +7364,11 @@
       </c>
     </row>
     <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B390" t="inlineStr">
         <is>
           <t>Tepoztlán</t>
@@ -5522,6 +7382,11 @@
       </c>
     </row>
     <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B391" t="inlineStr">
         <is>
           <t>Tetecala</t>
@@ -5535,6 +7400,11 @@
       </c>
     </row>
     <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B392" t="inlineStr">
         <is>
           <t>Yautepec</t>
@@ -5548,6 +7418,11 @@
       </c>
     </row>
     <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B393" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5579,6 +7454,11 @@
       </c>
     </row>
     <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B395" t="inlineStr">
         <is>
           <t>Ahuacatlán</t>
@@ -5592,6 +7472,11 @@
       </c>
     </row>
     <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B396" t="inlineStr">
         <is>
           <t>Amatlán De Cañas</t>
@@ -5605,6 +7490,11 @@
       </c>
     </row>
     <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B397" t="inlineStr">
         <is>
           <t>Compostela</t>
@@ -5618,6 +7508,11 @@
       </c>
     </row>
     <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B398" t="inlineStr">
         <is>
           <t>Del Nayar</t>
@@ -5631,6 +7526,11 @@
       </c>
     </row>
     <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B399" t="inlineStr">
         <is>
           <t>Huajicori</t>
@@ -5644,6 +7544,11 @@
       </c>
     </row>
     <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B400" t="inlineStr">
         <is>
           <t>Ixtlán Del Río</t>
@@ -5657,6 +7562,11 @@
       </c>
     </row>
     <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B401" t="inlineStr">
         <is>
           <t>Jala</t>
@@ -5670,6 +7580,11 @@
       </c>
     </row>
     <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B402" t="inlineStr">
         <is>
           <t>San Pedro Lagunillas</t>
@@ -5683,6 +7598,11 @@
       </c>
     </row>
     <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B403" t="inlineStr">
         <is>
           <t>Santiago Ixcuintla</t>
@@ -5696,6 +7616,11 @@
       </c>
     </row>
     <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B404" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -5709,6 +7634,11 @@
       </c>
     </row>
     <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B405" t="inlineStr">
         <is>
           <t>Xalisco</t>
@@ -5722,6 +7652,11 @@
       </c>
     </row>
     <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B406" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5753,6 +7688,11 @@
       </c>
     </row>
     <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B408" t="inlineStr">
         <is>
           <t>Cadereyta Jiménez</t>
@@ -5766,6 +7706,11 @@
       </c>
     </row>
     <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B409" t="inlineStr">
         <is>
           <t>García</t>
@@ -5779,6 +7724,11 @@
       </c>
     </row>
     <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B410" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -5792,6 +7742,11 @@
       </c>
     </row>
     <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B411" t="inlineStr">
         <is>
           <t>Linares</t>
@@ -5805,6 +7760,11 @@
       </c>
     </row>
     <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B412" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -5818,6 +7778,11 @@
       </c>
     </row>
     <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B413" t="inlineStr">
         <is>
           <t>Sabinas Hidalgo</t>
@@ -5831,6 +7796,11 @@
       </c>
     </row>
     <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B414" t="inlineStr">
         <is>
           <t>San Nicolás De Los Garza</t>
@@ -5844,6 +7814,11 @@
       </c>
     </row>
     <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B415" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5875,6 +7850,11 @@
       </c>
     </row>
     <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B417" t="inlineStr">
         <is>
           <t>Ciudad Ixtepec</t>
@@ -5888,6 +7868,11 @@
       </c>
     </row>
     <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B418" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Tlaxiaco</t>
@@ -5901,6 +7886,11 @@
       </c>
     </row>
     <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B419" t="inlineStr">
         <is>
           <t>Huajuapan De León</t>
@@ -5914,6 +7904,11 @@
       </c>
     </row>
     <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B420" t="inlineStr">
         <is>
           <t>Loma Bonita</t>
@@ -5927,6 +7922,11 @@
       </c>
     </row>
     <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B421" t="inlineStr">
         <is>
           <t>Miahuatlán De Porfirio Díaz</t>
@@ -5940,6 +7940,11 @@
       </c>
     </row>
     <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B422" t="inlineStr">
         <is>
           <t>Nejapa De Madero</t>
@@ -5953,6 +7958,11 @@
       </c>
     </row>
     <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B423" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -5966,6 +7976,11 @@
       </c>
     </row>
     <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B424" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -5979,6 +7994,11 @@
       </c>
     </row>
     <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B425" t="inlineStr">
         <is>
           <t>Salina Cruz</t>
@@ -5992,6 +8012,11 @@
       </c>
     </row>
     <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B426" t="inlineStr">
         <is>
           <t>San Carlos Yautepec</t>
@@ -6005,6 +8030,11 @@
       </c>
     </row>
     <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B427" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -6018,6 +8048,11 @@
       </c>
     </row>
     <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B428" t="inlineStr">
         <is>
           <t>San Lorenzo Victoria</t>
@@ -6031,6 +8066,11 @@
       </c>
     </row>
     <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B429" t="inlineStr">
         <is>
           <t>San Miguel Chicahua</t>
@@ -6044,6 +8084,11 @@
       </c>
     </row>
     <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B430" t="inlineStr">
         <is>
           <t>San Pedro El Alto</t>
@@ -6057,6 +8102,11 @@
       </c>
     </row>
     <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B431" t="inlineStr">
         <is>
           <t>San Pedro Huamelula</t>
@@ -6070,6 +8120,11 @@
       </c>
     </row>
     <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B432" t="inlineStr">
         <is>
           <t>San Pedro Jicayán</t>
@@ -6083,6 +8138,11 @@
       </c>
     </row>
     <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B433" t="inlineStr">
         <is>
           <t>San Pedro Pochutla</t>
@@ -6096,6 +8156,11 @@
       </c>
     </row>
     <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B434" t="inlineStr">
         <is>
           <t>Santa Cruz Xitla</t>
@@ -6109,6 +8174,11 @@
       </c>
     </row>
     <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B435" t="inlineStr">
         <is>
           <t>Santa Inés Del Monte</t>
@@ -6122,6 +8192,11 @@
       </c>
     </row>
     <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B436" t="inlineStr">
         <is>
           <t>Santa María Tonameca</t>
@@ -6135,6 +8210,11 @@
       </c>
     </row>
     <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B437" t="inlineStr">
         <is>
           <t>Santiago Yaveo</t>
@@ -6148,6 +8228,11 @@
       </c>
     </row>
     <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B438" t="inlineStr">
         <is>
           <t>Santo Domingo Ixcatlán</t>
@@ -6161,6 +8246,11 @@
       </c>
     </row>
     <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B439" t="inlineStr">
         <is>
           <t>Santo Domingo Tehuantepec</t>
@@ -6174,6 +8264,11 @@
       </c>
     </row>
     <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B440" t="inlineStr">
         <is>
           <t>Tepelmeme Villa De Morelos</t>
@@ -6187,6 +8282,11 @@
       </c>
     </row>
     <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B441" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -6200,6 +8300,11 @@
       </c>
     </row>
     <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B442" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6231,6 +8336,11 @@
       </c>
     </row>
     <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B444" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -6244,6 +8354,11 @@
       </c>
     </row>
     <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B445" t="inlineStr">
         <is>
           <t>Cañada Morelos</t>
@@ -6257,6 +8372,11 @@
       </c>
     </row>
     <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B446" t="inlineStr">
         <is>
           <t>Chiautla</t>
@@ -6270,6 +8390,11 @@
       </c>
     </row>
     <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B447" t="inlineStr">
         <is>
           <t>Chignahuapan</t>
@@ -6283,6 +8408,11 @@
       </c>
     </row>
     <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B448" t="inlineStr">
         <is>
           <t>Coxcatlán</t>
@@ -6296,6 +8426,11 @@
       </c>
     </row>
     <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B449" t="inlineStr">
         <is>
           <t>Huauchinango</t>
@@ -6309,6 +8444,11 @@
       </c>
     </row>
     <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B450" t="inlineStr">
         <is>
           <t>Huehuetla</t>
@@ -6322,6 +8462,11 @@
       </c>
     </row>
     <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B451" t="inlineStr">
         <is>
           <t>Huejotzingo</t>
@@ -6335,6 +8480,11 @@
       </c>
     </row>
     <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B452" t="inlineStr">
         <is>
           <t>Hueyapan</t>
@@ -6348,6 +8498,11 @@
       </c>
     </row>
     <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B453" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -6361,6 +8516,11 @@
       </c>
     </row>
     <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B454" t="inlineStr">
         <is>
           <t>Los Reyes De Juárez</t>
@@ -6374,6 +8534,11 @@
       </c>
     </row>
     <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B455" t="inlineStr">
         <is>
           <t>Palmar De Bravo</t>
@@ -6387,6 +8552,11 @@
       </c>
     </row>
     <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B456" t="inlineStr">
         <is>
           <t>Piaxtla</t>
@@ -6400,6 +8570,11 @@
       </c>
     </row>
     <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B457" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -6413,6 +8588,11 @@
       </c>
     </row>
     <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B458" t="inlineStr">
         <is>
           <t>Quecholac</t>
@@ -6426,6 +8606,11 @@
       </c>
     </row>
     <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B459" t="inlineStr">
         <is>
           <t>San Andrés Cholula</t>
@@ -6439,6 +8624,11 @@
       </c>
     </row>
     <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B460" t="inlineStr">
         <is>
           <t>San Martín Texmelucan</t>
@@ -6452,6 +8642,11 @@
       </c>
     </row>
     <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B461" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -6465,6 +8660,11 @@
       </c>
     </row>
     <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B462" t="inlineStr">
         <is>
           <t>San Salvador El Seco</t>
@@ -6478,6 +8678,11 @@
       </c>
     </row>
     <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B463" t="inlineStr">
         <is>
           <t>San Salvador El Verde</t>
@@ -6491,6 +8696,11 @@
       </c>
     </row>
     <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B464" t="inlineStr">
         <is>
           <t>Tecamachalco</t>
@@ -6504,6 +8714,11 @@
       </c>
     </row>
     <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B465" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -6517,6 +8732,11 @@
       </c>
     </row>
     <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B466" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -6530,6 +8750,11 @@
       </c>
     </row>
     <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B467" t="inlineStr">
         <is>
           <t>Tepexi De Rodríguez</t>
@@ -6543,6 +8768,11 @@
       </c>
     </row>
     <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B468" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juárez</t>
@@ -6556,6 +8786,11 @@
       </c>
     </row>
     <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B469" t="inlineStr">
         <is>
           <t>Tlatlauquitepec</t>
@@ -6569,6 +8804,11 @@
       </c>
     </row>
     <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B470" t="inlineStr">
         <is>
           <t>Tochtepec</t>
@@ -6582,6 +8822,11 @@
       </c>
     </row>
     <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B471" t="inlineStr">
         <is>
           <t>Tulcingo</t>
@@ -6595,6 +8840,11 @@
       </c>
     </row>
     <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B472" t="inlineStr">
         <is>
           <t>Zacapala</t>
@@ -6608,6 +8858,11 @@
       </c>
     </row>
     <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B473" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -6621,6 +8876,11 @@
       </c>
     </row>
     <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B474" t="inlineStr">
         <is>
           <t>Zacatlán</t>
@@ -6634,6 +8894,11 @@
       </c>
     </row>
     <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B475" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6665,6 +8930,11 @@
       </c>
     </row>
     <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B477" t="inlineStr">
         <is>
           <t>Arroyo Seco</t>
@@ -6678,6 +8948,11 @@
       </c>
     </row>
     <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B478" t="inlineStr">
         <is>
           <t>Cadereyta De Montes</t>
@@ -6691,6 +8966,11 @@
       </c>
     </row>
     <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B479" t="inlineStr">
         <is>
           <t>Corregidora</t>
@@ -6704,6 +8984,11 @@
       </c>
     </row>
     <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B480" t="inlineStr">
         <is>
           <t>Jalpan De Serra</t>
@@ -6717,6 +9002,11 @@
       </c>
     </row>
     <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B481" t="inlineStr">
         <is>
           <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
@@ -6730,6 +9020,11 @@
       </c>
     </row>
     <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B482" t="inlineStr">
         <is>
           <t>Pedro Escobedo</t>
@@ -6743,6 +9038,11 @@
       </c>
     </row>
     <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B483" t="inlineStr">
         <is>
           <t>Peñamiller</t>
@@ -6756,6 +9056,11 @@
       </c>
     </row>
     <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B484" t="inlineStr">
         <is>
           <t>Pinal De Amoles</t>
@@ -6769,6 +9074,11 @@
       </c>
     </row>
     <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B485" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -6782,6 +9092,11 @@
       </c>
     </row>
     <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B486" t="inlineStr">
         <is>
           <t>San Joaquín</t>
@@ -6795,6 +9110,11 @@
       </c>
     </row>
     <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B487" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -6808,6 +9128,11 @@
       </c>
     </row>
     <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B488" t="inlineStr">
         <is>
           <t>Tequisquiapan</t>
@@ -6821,6 +9146,11 @@
       </c>
     </row>
     <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B489" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6852,6 +9182,11 @@
       </c>
     </row>
     <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B491" t="inlineStr">
         <is>
           <t>Felipe Carrillo Puerto</t>
@@ -6865,6 +9200,11 @@
       </c>
     </row>
     <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B492" t="inlineStr">
         <is>
           <t>Othón P. Blanco</t>
@@ -6878,6 +9218,11 @@
       </c>
     </row>
     <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B493" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6909,6 +9254,11 @@
       </c>
     </row>
     <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B495" t="inlineStr">
         <is>
           <t>Ciudad Valles</t>
@@ -6922,6 +9272,11 @@
       </c>
     </row>
     <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B496" t="inlineStr">
         <is>
           <t>Cárdenas</t>
@@ -6935,6 +9290,11 @@
       </c>
     </row>
     <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B497" t="inlineStr">
         <is>
           <t>Ebano</t>
@@ -6948,6 +9308,11 @@
       </c>
     </row>
     <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B498" t="inlineStr">
         <is>
           <t>Matehuala</t>
@@ -6961,6 +9326,11 @@
       </c>
     </row>
     <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B499" t="inlineStr">
         <is>
           <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
@@ -6974,6 +9344,11 @@
       </c>
     </row>
     <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B500" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -6987,6 +9362,11 @@
       </c>
     </row>
     <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B501" t="inlineStr">
         <is>
           <t>San Ciro De Acosta</t>
@@ -7000,6 +9380,11 @@
       </c>
     </row>
     <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B502" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -7013,6 +9398,11 @@
       </c>
     </row>
     <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B503" t="inlineStr">
         <is>
           <t>San Nicolás Tolentino</t>
@@ -7026,6 +9416,11 @@
       </c>
     </row>
     <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B504" t="inlineStr">
         <is>
           <t>Santa Catarina</t>
@@ -7039,6 +9434,11 @@
       </c>
     </row>
     <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B505" t="inlineStr">
         <is>
           <t>Santo Domingo</t>
@@ -7052,6 +9452,11 @@
       </c>
     </row>
     <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B506" t="inlineStr">
         <is>
           <t>Villa De Ramos</t>
@@ -7065,6 +9470,11 @@
       </c>
     </row>
     <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B507" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7096,6 +9506,11 @@
       </c>
     </row>
     <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B509" t="inlineStr">
         <is>
           <t>Choix</t>
@@ -7109,6 +9524,11 @@
       </c>
     </row>
     <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B510" t="inlineStr">
         <is>
           <t>Culiacán</t>
@@ -7122,6 +9542,11 @@
       </c>
     </row>
     <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B511" t="inlineStr">
         <is>
           <t>El Fuerte</t>
@@ -7135,6 +9560,11 @@
       </c>
     </row>
     <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B512" t="inlineStr">
         <is>
           <t>Guasave</t>
@@ -7148,6 +9578,11 @@
       </c>
     </row>
     <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B513" t="inlineStr">
         <is>
           <t>Mazatlán</t>
@@ -7161,6 +9596,11 @@
       </c>
     </row>
     <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B514" t="inlineStr">
         <is>
           <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
@@ -7174,6 +9614,11 @@
       </c>
     </row>
     <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B515" t="inlineStr">
         <is>
           <t>Salvador Alvarado</t>
@@ -7187,6 +9632,11 @@
       </c>
     </row>
     <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B516" t="inlineStr">
         <is>
           <t>Sinaloa</t>
@@ -7200,6 +9650,11 @@
       </c>
     </row>
     <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B517" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7231,6 +9686,11 @@
       </c>
     </row>
     <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B519" t="inlineStr">
         <is>
           <t>Alamos</t>
@@ -7244,6 +9704,11 @@
       </c>
     </row>
     <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B520" t="inlineStr">
         <is>
           <t>Arizpe</t>
@@ -7257,6 +9722,11 @@
       </c>
     </row>
     <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B521" t="inlineStr">
         <is>
           <t>Caborca</t>
@@ -7270,6 +9740,11 @@
       </c>
     </row>
     <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B522" t="inlineStr">
         <is>
           <t>Cajeme</t>
@@ -7283,6 +9758,11 @@
       </c>
     </row>
     <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B523" t="inlineStr">
         <is>
           <t>Cananea</t>
@@ -7296,6 +9776,11 @@
       </c>
     </row>
     <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B524" t="inlineStr">
         <is>
           <t>Cumpas</t>
@@ -7309,6 +9794,11 @@
       </c>
     </row>
     <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B525" t="inlineStr">
         <is>
           <t>Empalme</t>
@@ -7322,6 +9812,11 @@
       </c>
     </row>
     <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B526" t="inlineStr">
         <is>
           <t>General Plutarco Elías Calles</t>
@@ -7335,6 +9830,11 @@
       </c>
     </row>
     <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B527" t="inlineStr">
         <is>
           <t>Guaymas</t>
@@ -7348,6 +9848,11 @@
       </c>
     </row>
     <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B528" t="inlineStr">
         <is>
           <t>Hermosillo</t>
@@ -7361,6 +9866,11 @@
       </c>
     </row>
     <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B529" t="inlineStr">
         <is>
           <t>Huatabampo</t>
@@ -7374,6 +9884,11 @@
       </c>
     </row>
     <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B530" t="inlineStr">
         <is>
           <t>Magdalena</t>
@@ -7387,6 +9902,11 @@
       </c>
     </row>
     <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B531" t="inlineStr">
         <is>
           <t>Nacozari De García</t>
@@ -7400,6 +9920,11 @@
       </c>
     </row>
     <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B532" t="inlineStr">
         <is>
           <t>Navojoa</t>
@@ -7413,6 +9938,11 @@
       </c>
     </row>
     <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B533" t="inlineStr">
         <is>
           <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
@@ -7426,6 +9956,11 @@
       </c>
     </row>
     <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B534" t="inlineStr">
         <is>
           <t>Nogales</t>
@@ -7439,6 +9974,11 @@
       </c>
     </row>
     <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B535" t="inlineStr">
         <is>
           <t>San Luis Río Colorado</t>
@@ -7452,6 +9992,11 @@
       </c>
     </row>
     <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B536" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7483,6 +10028,11 @@
       </c>
     </row>
     <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B538" t="inlineStr">
         <is>
           <t>Cárdenas</t>
@@ -7496,6 +10046,11 @@
       </c>
     </row>
     <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B539" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -7509,6 +10064,11 @@
       </c>
     </row>
     <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B540" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -7522,6 +10082,11 @@
       </c>
     </row>
     <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B541" t="inlineStr">
         <is>
           <t>Teapa</t>
@@ -7535,6 +10100,11 @@
       </c>
     </row>
     <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B542" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7566,6 +10136,11 @@
       </c>
     </row>
     <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B544" t="inlineStr">
         <is>
           <t>Jaumave</t>
@@ -7579,6 +10154,11 @@
       </c>
     </row>
     <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B545" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -7592,6 +10172,11 @@
       </c>
     </row>
     <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B546" t="inlineStr">
         <is>
           <t>Nuevo Laredo</t>
@@ -7605,6 +10190,11 @@
       </c>
     </row>
     <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B547" t="inlineStr">
         <is>
           <t>Reynosa</t>
@@ -7618,6 +10208,11 @@
       </c>
     </row>
     <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B548" t="inlineStr">
         <is>
           <t>Río Bravo</t>
@@ -7631,6 +10226,11 @@
       </c>
     </row>
     <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B549" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -7644,6 +10244,11 @@
       </c>
     </row>
     <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B550" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7675,6 +10280,11 @@
       </c>
     </row>
     <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B552" t="inlineStr">
         <is>
           <t>Atlangatepec</t>
@@ -7688,6 +10298,11 @@
       </c>
     </row>
     <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B553" t="inlineStr">
         <is>
           <t>Chiautempan</t>
@@ -7701,6 +10316,11 @@
       </c>
     </row>
     <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B554" t="inlineStr">
         <is>
           <t>Contla De Juan Cuamatzi</t>
@@ -7714,6 +10334,11 @@
       </c>
     </row>
     <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B555" t="inlineStr">
         <is>
           <t>Huamantla</t>
@@ -7727,6 +10352,11 @@
       </c>
     </row>
     <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B556" t="inlineStr">
         <is>
           <t>Natívitas</t>
@@ -7740,6 +10370,11 @@
       </c>
     </row>
     <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B557" t="inlineStr">
         <is>
           <t>Panotla</t>
@@ -7753,6 +10388,11 @@
       </c>
     </row>
     <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B558" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -7766,6 +10406,11 @@
       </c>
     </row>
     <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B559" t="inlineStr">
         <is>
           <t>Totolac</t>
@@ -7779,6 +10424,11 @@
       </c>
     </row>
     <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B560" t="inlineStr">
         <is>
           <t>Xaltocan</t>
@@ -7792,6 +10442,11 @@
       </c>
     </row>
     <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B561" t="inlineStr">
         <is>
           <t>Xicohtzinco</t>
@@ -7805,6 +10460,11 @@
       </c>
     </row>
     <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B562" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7836,6 +10496,11 @@
       </c>
     </row>
     <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B564" t="inlineStr">
         <is>
           <t>Acatlán</t>
@@ -7849,6 +10514,11 @@
       </c>
     </row>
     <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B565" t="inlineStr">
         <is>
           <t>Agua Dulce</t>
@@ -7862,6 +10532,11 @@
       </c>
     </row>
     <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B566" t="inlineStr">
         <is>
           <t>Altotonga</t>
@@ -7875,6 +10550,11 @@
       </c>
     </row>
     <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B567" t="inlineStr">
         <is>
           <t>Atlahuilco</t>
@@ -7888,6 +10568,11 @@
       </c>
     </row>
     <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B568" t="inlineStr">
         <is>
           <t>Atoyac</t>
@@ -7901,6 +10586,11 @@
       </c>
     </row>
     <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B569" t="inlineStr">
         <is>
           <t>Catemaco</t>
@@ -7914,6 +10604,11 @@
       </c>
     </row>
     <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B570" t="inlineStr">
         <is>
           <t>Chacaltianguis</t>
@@ -7927,6 +10622,11 @@
       </c>
     </row>
     <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B571" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -7940,6 +10640,11 @@
       </c>
     </row>
     <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B572" t="inlineStr">
         <is>
           <t>Cosamaloapan De Carpio</t>
@@ -7953,6 +10658,11 @@
       </c>
     </row>
     <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B573" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -7966,6 +10676,11 @@
       </c>
     </row>
     <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B574" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -7979,6 +10694,11 @@
       </c>
     </row>
     <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B575" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -7992,6 +10712,11 @@
       </c>
     </row>
     <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B576" t="inlineStr">
         <is>
           <t>Gutiérrez Zamora</t>
@@ -8005,6 +10730,11 @@
       </c>
     </row>
     <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B577" t="inlineStr">
         <is>
           <t>Hidalgotitlán</t>
@@ -8018,6 +10748,11 @@
       </c>
     </row>
     <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B578" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -8031,6 +10766,11 @@
       </c>
     </row>
     <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B579" t="inlineStr">
         <is>
           <t>Isla</t>
@@ -8044,6 +10784,11 @@
       </c>
     </row>
     <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B580" t="inlineStr">
         <is>
           <t>Jilotepec</t>
@@ -8057,6 +10802,11 @@
       </c>
     </row>
     <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B581" t="inlineStr">
         <is>
           <t>Juan Rodríguez Clara</t>
@@ -8070,6 +10820,11 @@
       </c>
     </row>
     <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B582" t="inlineStr">
         <is>
           <t>Juchique De Ferrer</t>
@@ -8083,6 +10838,11 @@
       </c>
     </row>
     <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B583" t="inlineStr">
         <is>
           <t>Jáltipan</t>
@@ -8096,6 +10856,11 @@
       </c>
     </row>
     <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B584" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -8109,6 +10874,11 @@
       </c>
     </row>
     <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B585" t="inlineStr">
         <is>
           <t>Lerdo De Tejada</t>
@@ -8122,6 +10892,11 @@
       </c>
     </row>
     <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B586" t="inlineStr">
         <is>
           <t>Mariano Escobedo</t>
@@ -8135,6 +10910,11 @@
       </c>
     </row>
     <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B587" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -8148,6 +10928,11 @@
       </c>
     </row>
     <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B588" t="inlineStr">
         <is>
           <t>Medellín</t>
@@ -8161,6 +10946,11 @@
       </c>
     </row>
     <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B589" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -8174,6 +10964,11 @@
       </c>
     </row>
     <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B590" t="inlineStr">
         <is>
           <t>Misantla</t>
@@ -8187,6 +10982,11 @@
       </c>
     </row>
     <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B591" t="inlineStr">
         <is>
           <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
@@ -8200,6 +11000,11 @@
       </c>
     </row>
     <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B592" t="inlineStr">
         <is>
           <t>Otatitlán</t>
@@ -8213,6 +11018,11 @@
       </c>
     </row>
     <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B593" t="inlineStr">
         <is>
           <t>Papantla</t>
@@ -8226,6 +11036,11 @@
       </c>
     </row>
     <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B594" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -8239,6 +11054,11 @@
       </c>
     </row>
     <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B595" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -8252,6 +11072,11 @@
       </c>
     </row>
     <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B596" t="inlineStr">
         <is>
           <t>Río Blanco</t>
@@ -8265,6 +11090,11 @@
       </c>
     </row>
     <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B597" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -8278,6 +11108,11 @@
       </c>
     </row>
     <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B598" t="inlineStr">
         <is>
           <t>San Juan Evangelista</t>
@@ -8291,6 +11126,11 @@
       </c>
     </row>
     <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B599" t="inlineStr">
         <is>
           <t>Soledad Atzompa</t>
@@ -8304,6 +11144,11 @@
       </c>
     </row>
     <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B600" t="inlineStr">
         <is>
           <t>Tamiahua</t>
@@ -8317,6 +11162,11 @@
       </c>
     </row>
     <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B601" t="inlineStr">
         <is>
           <t>Tepetlán</t>
@@ -8330,6 +11180,11 @@
       </c>
     </row>
     <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B602" t="inlineStr">
         <is>
           <t>Texistepec</t>
@@ -8343,6 +11198,11 @@
       </c>
     </row>
     <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B603" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -8356,6 +11216,11 @@
       </c>
     </row>
     <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B604" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -8369,6 +11234,11 @@
       </c>
     </row>
     <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B605" t="inlineStr">
         <is>
           <t>Tres Valles</t>
@@ -8382,6 +11252,11 @@
       </c>
     </row>
     <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B606" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -8395,6 +11270,11 @@
       </c>
     </row>
     <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B607" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -8408,6 +11288,11 @@
       </c>
     </row>
     <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B608" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -8421,6 +11306,11 @@
       </c>
     </row>
     <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B609" t="inlineStr">
         <is>
           <t>Yanga</t>
@@ -8434,6 +11324,11 @@
       </c>
     </row>
     <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B610" t="inlineStr">
         <is>
           <t>Zongolica</t>
@@ -8447,6 +11342,11 @@
       </c>
     </row>
     <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B611" t="inlineStr">
         <is>
           <t>Álamo Temapache</t>
@@ -8460,6 +11360,11 @@
       </c>
     </row>
     <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B612" t="inlineStr">
         <is>
           <t>Total</t>
@@ -8491,6 +11396,11 @@
       </c>
     </row>
     <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B614" t="inlineStr">
         <is>
           <t>Peto</t>
@@ -8504,6 +11414,11 @@
       </c>
     </row>
     <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B615" t="inlineStr">
         <is>
           <t>Total</t>
@@ -8535,6 +11450,11 @@
       </c>
     </row>
     <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B617" t="inlineStr">
         <is>
           <t>Cañitas De Felipe Pescador</t>
@@ -8548,6 +11468,11 @@
       </c>
     </row>
     <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B618" t="inlineStr">
         <is>
           <t>Chalchihuites</t>
@@ -8561,6 +11486,11 @@
       </c>
     </row>
     <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B619" t="inlineStr">
         <is>
           <t>Concepción Del Oro</t>
@@ -8574,6 +11504,11 @@
       </c>
     </row>
     <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B620" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -8587,6 +11522,11 @@
       </c>
     </row>
     <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B621" t="inlineStr">
         <is>
           <t>Fresnillo</t>
@@ -8600,6 +11540,11 @@
       </c>
     </row>
     <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B622" t="inlineStr">
         <is>
           <t>Genaro Codina</t>
@@ -8613,6 +11558,11 @@
       </c>
     </row>
     <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B623" t="inlineStr">
         <is>
           <t>General Enrique Estrada</t>
@@ -8626,6 +11576,11 @@
       </c>
     </row>
     <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B624" t="inlineStr">
         <is>
           <t>General Francisco R. Murguía</t>
@@ -8639,6 +11594,11 @@
       </c>
     </row>
     <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B625" t="inlineStr">
         <is>
           <t>General Pánfilo Natera</t>
@@ -8652,6 +11612,11 @@
       </c>
     </row>
     <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B626" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -8665,6 +11630,11 @@
       </c>
     </row>
     <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B627" t="inlineStr">
         <is>
           <t>Jalpa</t>
@@ -8678,6 +11648,11 @@
       </c>
     </row>
     <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B628" t="inlineStr">
         <is>
           <t>Jerez</t>
@@ -8691,6 +11666,11 @@
       </c>
     </row>
     <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B629" t="inlineStr">
         <is>
           <t>Juan Aldama</t>
@@ -8704,6 +11684,11 @@
       </c>
     </row>
     <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B630" t="inlineStr">
         <is>
           <t>Loreto</t>
@@ -8717,6 +11702,11 @@
       </c>
     </row>
     <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B631" t="inlineStr">
         <is>
           <t>Luis Moya</t>
@@ -8730,6 +11720,11 @@
       </c>
     </row>
     <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B632" t="inlineStr">
         <is>
           <t>Mazapil</t>
@@ -8743,6 +11738,11 @@
       </c>
     </row>
     <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B633" t="inlineStr">
         <is>
           <t>Miguel Auza</t>
@@ -8756,6 +11756,11 @@
       </c>
     </row>
     <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B634" t="inlineStr">
         <is>
           <t>Monte Escobedo</t>
@@ -8769,6 +11774,11 @@
       </c>
     </row>
     <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B635" t="inlineStr">
         <is>
           <t>Moyahua De Estrada</t>
@@ -8782,6 +11792,11 @@
       </c>
     </row>
     <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B636" t="inlineStr">
         <is>
           <t>Nochistlán De Mejía</t>
@@ -8795,6 +11810,11 @@
       </c>
     </row>
     <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B637" t="inlineStr">
         <is>
           <t>Noria De Ángeles</t>
@@ -8808,6 +11828,11 @@
       </c>
     </row>
     <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B638" t="inlineStr">
         <is>
           <t>Ojocaliente</t>
@@ -8821,6 +11846,11 @@
       </c>
     </row>
     <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B639" t="inlineStr">
         <is>
           <t>Pinos</t>
@@ -8834,6 +11864,11 @@
       </c>
     </row>
     <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B640" t="inlineStr">
         <is>
           <t>Pánuco</t>
@@ -8847,6 +11882,11 @@
       </c>
     </row>
     <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B641" t="inlineStr">
         <is>
           <t>Río Grande</t>
@@ -8860,6 +11900,11 @@
       </c>
     </row>
     <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B642" t="inlineStr">
         <is>
           <t>Sain Alto</t>
@@ -8873,6 +11918,11 @@
       </c>
     </row>
     <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B643" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -8886,6 +11936,11 @@
       </c>
     </row>
     <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B644" t="inlineStr">
         <is>
           <t>Tepechitlán</t>
@@ -8899,6 +11954,11 @@
       </c>
     </row>
     <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B645" t="inlineStr">
         <is>
           <t>Valparaíso</t>
@@ -8912,6 +11972,11 @@
       </c>
     </row>
     <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B646" t="inlineStr">
         <is>
           <t>Villa De Cos</t>
@@ -8925,6 +11990,11 @@
       </c>
     </row>
     <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B647" t="inlineStr">
         <is>
           <t>Villa García</t>
@@ -8938,6 +12008,11 @@
       </c>
     </row>
     <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B648" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -8951,6 +12026,11 @@
       </c>
     </row>
     <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B649" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -8964,6 +12044,11 @@
       </c>
     </row>
     <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B650" t="inlineStr">
         <is>
           <t>Total</t>
